--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rinku\Desktop\coding\FAANG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE52E2D5-AAA3-4AF8-BCD5-C08E14890B8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A09A15-218E-42EF-9D16-6B496F24E1FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1431,17 +1431,17 @@
     <t xml:space="preserve"> yes</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>Array  *</t>
+  </si>
+  <si>
+    <t>not opening</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1511,6 +1511,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1533,7 +1549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1561,6 +1577,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1878,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001"/>
@@ -1917,7 +1935,7 @@
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -1928,7 +1946,7 @@
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -1939,7 +1957,7 @@
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -1950,7 +1968,7 @@
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -1961,7 +1979,7 @@
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -1972,7 +1990,7 @@
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1983,7 +2001,7 @@
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -1994,7 +2012,7 @@
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -2005,7 +2023,7 @@
       <c r="A14" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -2016,7 +2034,7 @@
       <c r="A15" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -2027,7 +2045,7 @@
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -2036,20 +2054,20 @@
     </row>
     <row r="17" spans="1:3" ht="21.05">
       <c r="A17" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="B17" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21.05">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -2060,7 +2078,7 @@
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -2071,7 +2089,7 @@
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -2082,7 +2100,7 @@
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -2093,7 +2111,7 @@
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -2104,7 +2122,7 @@
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -2115,7 +2133,7 @@
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -2126,7 +2144,7 @@
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="11" t="s">
@@ -2137,7 +2155,7 @@
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -2148,7 +2166,7 @@
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -2159,7 +2177,7 @@
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -2170,7 +2188,7 @@
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -2181,128 +2199,128 @@
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="21.05">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="21.05">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21.05">
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21.05">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="21.05">
       <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21.05">
       <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21.05">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>4</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="21.05">
       <c r="A38" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="21.05">
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="21.05">
       <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="21.05">
       <c r="A41" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="11" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rinku\Desktop\coding\FAANG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A09A15-218E-42EF-9D16-6B496F24E1FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496FBD86-AFEE-4E0D-A48F-D289778C1F6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="471">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1435,6 +1435,9 @@
   </si>
   <si>
     <t>not opening</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -1549,7 +1552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1577,8 +1580,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1896,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001"/>
@@ -2023,7 +2031,7 @@
       <c r="A14" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -2034,7 +2042,7 @@
       <c r="A15" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -2056,7 +2064,7 @@
       <c r="A17" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -2276,7 +2284,7 @@
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="11" t="s">
@@ -2320,79 +2328,76 @@
       <c r="A41" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>4</v>
+        <v>470</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="21.05">
+      <c r="A42" s="4"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="C42" s="11"/>
     </row>
     <row r="43" spans="1:3" ht="21.05">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:3" ht="21.05">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="21.05">
       <c r="A45" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="21.05">
       <c r="A46" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="21.05">
       <c r="A47" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="21.05">
       <c r="A48" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="21.05">
@@ -2421,37 +2426,38 @@
       <c r="A51" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="13" t="s">
         <v>50</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="21.05">
       <c r="A52" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="21.05">
       <c r="A53" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="C54" s="12"/>
+      <c r="A54" s="4"/>
+      <c r="C54" s="11"/>
     </row>
     <row r="55" spans="1:3" ht="21.05">
       <c r="A55" s="5"/>
@@ -2932,7 +2938,8 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="C99" s="12"/>
+      <c r="A99" s="4"/>
+      <c r="C99" s="11"/>
     </row>
     <row r="100" spans="1:3" ht="21.05">
       <c r="A100" s="8"/>
@@ -3336,9 +3343,11 @@
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="C137" s="12"/>
+      <c r="A137" s="4"/>
+      <c r="C137" s="11"/>
     </row>
     <row r="138" spans="1:3" ht="21.05">
+      <c r="A138" s="4"/>
       <c r="B138" s="7"/>
       <c r="C138" s="11"/>
     </row>
@@ -3739,9 +3748,11 @@
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="C175" s="12"/>
+      <c r="A175" s="4"/>
+      <c r="C175" s="11"/>
     </row>
     <row r="176" spans="1:3" ht="21.05">
+      <c r="A176" s="4"/>
       <c r="B176" s="7"/>
       <c r="C176" s="11"/>
     </row>
@@ -4383,10 +4394,12 @@
       </c>
     </row>
     <row r="236" spans="1:3" ht="21.05">
+      <c r="A236" s="4"/>
       <c r="B236" s="7"/>
       <c r="C236" s="11"/>
     </row>
     <row r="237" spans="1:3" ht="21.05">
+      <c r="A237" s="4"/>
       <c r="B237" s="7"/>
       <c r="C237" s="11"/>
     </row>
@@ -4776,10 +4789,12 @@
       </c>
     </row>
     <row r="273" spans="1:3" ht="21.05">
+      <c r="A273" s="4"/>
       <c r="B273" s="7"/>
       <c r="C273" s="11"/>
     </row>
     <row r="274" spans="1:3" ht="21.05">
+      <c r="A274" s="4"/>
       <c r="B274" s="7"/>
       <c r="C274" s="11"/>
     </row>
@@ -4993,10 +5008,12 @@
       </c>
     </row>
     <row r="294" spans="1:3" ht="21.05">
+      <c r="A294" s="4"/>
       <c r="B294" s="7"/>
       <c r="C294" s="11"/>
     </row>
     <row r="295" spans="1:3" ht="21.05">
+      <c r="A295" s="4"/>
       <c r="B295" s="7"/>
       <c r="C295" s="11"/>
     </row>
@@ -5419,10 +5436,12 @@
       </c>
     </row>
     <row r="334" spans="1:3" ht="21.05">
+      <c r="A334" s="4"/>
       <c r="B334" s="7"/>
       <c r="C334" s="11"/>
     </row>
     <row r="335" spans="1:3" ht="21.05">
+      <c r="A335" s="4"/>
       <c r="B335" s="7"/>
       <c r="C335" s="11"/>
     </row>
@@ -5625,10 +5644,12 @@
       </c>
     </row>
     <row r="354" spans="1:3" ht="21.05">
+      <c r="A354" s="4"/>
       <c r="B354" s="7"/>
       <c r="C354" s="11"/>
     </row>
     <row r="355" spans="1:3" ht="21.05">
+      <c r="A355" s="4"/>
       <c r="B355" s="7"/>
       <c r="C355" s="11"/>
     </row>
@@ -6117,10 +6138,12 @@
       </c>
     </row>
     <row r="400" spans="1:3" ht="21.05">
+      <c r="A400" s="4"/>
       <c r="B400" s="7"/>
       <c r="C400" s="11"/>
     </row>
     <row r="401" spans="1:3" ht="21.05">
+      <c r="A401" s="4"/>
       <c r="B401" s="7"/>
       <c r="C401" s="11"/>
     </row>
@@ -6191,10 +6214,12 @@
       </c>
     </row>
     <row r="408" spans="1:3" ht="21.05">
+      <c r="A408" s="4"/>
       <c r="B408" s="7"/>
       <c r="C408" s="11"/>
     </row>
     <row r="409" spans="1:3" ht="21.05">
+      <c r="A409" s="4"/>
       <c r="B409" s="7"/>
       <c r="C409" s="11"/>
     </row>
@@ -6859,6 +6884,7 @@
       </c>
     </row>
     <row r="470" spans="1:3" ht="21.05">
+      <c r="A470" s="4"/>
       <c r="B470" s="7"/>
       <c r="C470" s="11"/>
     </row>
@@ -6978,63 +7004,79 @@
       </c>
     </row>
     <row r="482" spans="1:3">
-      <c r="C482" s="12"/>
+      <c r="A482" s="4"/>
+      <c r="C482" s="11"/>
     </row>
     <row r="483" spans="1:3">
-      <c r="C483" s="12"/>
+      <c r="A483" s="4"/>
+      <c r="C483" s="11"/>
     </row>
     <row r="484" spans="1:3">
-      <c r="C484" s="12"/>
+      <c r="A484" s="4"/>
+      <c r="C484" s="11"/>
     </row>
     <row r="485" spans="1:3">
-      <c r="C485" s="12"/>
+      <c r="A485" s="4"/>
+      <c r="C485" s="11"/>
     </row>
     <row r="486" spans="1:3">
-      <c r="C486" s="12"/>
+      <c r="A486" s="4"/>
+      <c r="C486" s="11"/>
     </row>
     <row r="487" spans="1:3">
-      <c r="C487" s="12"/>
+      <c r="A487" s="4"/>
+      <c r="C487" s="11"/>
     </row>
     <row r="488" spans="1:3">
-      <c r="C488" s="12"/>
+      <c r="A488" s="4"/>
+      <c r="C488" s="11"/>
     </row>
     <row r="489" spans="1:3">
-      <c r="C489" s="12"/>
+      <c r="A489" s="4"/>
+      <c r="C489" s="11"/>
     </row>
     <row r="490" spans="1:3">
-      <c r="C490" s="12"/>
+      <c r="A490" s="4"/>
+      <c r="C490" s="11"/>
     </row>
     <row r="491" spans="1:3">
-      <c r="C491" s="12"/>
+      <c r="A491" s="4"/>
+      <c r="C491" s="11"/>
     </row>
     <row r="492" spans="1:3">
-      <c r="C492" s="12"/>
+      <c r="A492" s="4"/>
+      <c r="C492" s="11"/>
     </row>
     <row r="493" spans="1:3">
-      <c r="C493" s="12"/>
+      <c r="A493" s="4"/>
+      <c r="C493" s="11"/>
     </row>
     <row r="494" spans="1:3">
-      <c r="C494" s="12"/>
+      <c r="A494" s="4"/>
+      <c r="C494" s="11"/>
     </row>
     <row r="495" spans="1:3">
-      <c r="C495" s="12"/>
+      <c r="A495" s="4"/>
+      <c r="C495" s="11"/>
     </row>
     <row r="496" spans="1:3">
-      <c r="C496" s="12"/>
-    </row>
-    <row r="497" spans="3:3">
-      <c r="C497" s="12"/>
-    </row>
-    <row r="498" spans="3:3">
-      <c r="C498" s="12"/>
-    </row>
-    <row r="499" spans="3:3">
-      <c r="C499" s="12"/>
-    </row>
-    <row r="500" spans="3:3">
+      <c r="A496" s="4"/>
+      <c r="C496" s="11"/>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="4"/>
+      <c r="C497" s="11"/>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="C498" s="11"/>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="C499" s="11"/>
+    </row>
+    <row r="500" spans="1:3">
       <c r="C500" s="12"/>
     </row>
-    <row r="501" spans="3:3">
+    <row r="501" spans="1:3">
       <c r="C501" s="12"/>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rinku\Desktop\coding\FAANG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496FBD86-AFEE-4E0D-A48F-D289778C1F6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE422A9E-39D2-46B2-98B9-07905D92A6B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="472">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1437,14 +1437,17 @@
     <t>not opening</t>
   </si>
   <si>
-    <t>no</t>
+    <t>Matrix *</t>
+  </si>
+  <si>
+    <t>not clear</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1530,6 +1533,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1552,7 +1562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1587,6 +1597,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1904,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001"/>
@@ -2332,7 +2344,7 @@
         <v>41</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="21.05">
@@ -2402,24 +2414,24 @@
     </row>
     <row r="49" spans="1:3" ht="21.05">
       <c r="A49" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B49" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="21.05">
       <c r="A50" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="21.05">
@@ -2468,77 +2480,77 @@
       <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21.05">
       <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="13" t="s">
         <v>55</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21.05">
       <c r="A58" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21.05">
       <c r="A59" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="21.05">
       <c r="A60" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="13" t="s">
         <v>58</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="21.05">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>4</v>
+        <v>471</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="21.05">
       <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="21.05">
@@ -5197,11 +5209,11 @@
       <c r="A312" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B312" s="6" t="s">
+      <c r="B312" s="13" t="s">
         <v>302</v>
       </c>
       <c r="C312" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="21.05">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rinku\Desktop\coding\FAANG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE422A9E-39D2-46B2-98B9-07905D92A6B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C2F115-686D-44C9-8DEE-DA4947B0C4A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1441,6 +1441,9 @@
   </si>
   <si>
     <t>not clear</t>
+  </si>
+  <si>
+    <t>String *</t>
   </si>
 </sst>
 </file>
@@ -1916,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001"/>
@@ -2557,95 +2560,95 @@
       <c r="A63" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="13" t="s">
         <v>61</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="21.05">
       <c r="A64" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="21.05">
       <c r="A65" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="13" t="s">
         <v>63</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="21.05">
       <c r="A66" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="13" t="s">
         <v>64</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="21.05">
       <c r="A67" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="21.05">
       <c r="A68" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B68" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="21.05">
       <c r="A69" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="21.05">
       <c r="A70" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="13" t="s">
         <v>68</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="21.05">
       <c r="A71" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="13" t="s">
         <v>69</v>
       </c>
       <c r="C71" s="11" t="s">
@@ -2689,11 +2692,11 @@
       <c r="A75" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="21.05">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rinku\Desktop\coding\FAANG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C2F115-686D-44C9-8DEE-DA4947B0C4A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56316754-C465-4BC6-9CB0-A5E1B02374A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001"/>
@@ -2652,40 +2652,40 @@
         <v>69</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="21.05">
       <c r="A72" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="21.05">
       <c r="A73" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B73" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B73" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="21.05">
       <c r="A74" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B74" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B74" s="16" t="s">
         <v>72</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="21.05">
@@ -2703,44 +2703,44 @@
       <c r="A76" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="13" t="s">
         <v>74</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="21.05">
       <c r="A77" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B77" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B77" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="21.05">
       <c r="A78" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="21.05">
       <c r="A79" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="13" t="s">
         <v>77</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="21.05">
@@ -2758,44 +2758,44 @@
       <c r="A81" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="13" t="s">
         <v>79</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="21.05">
       <c r="A82" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="13" t="s">
         <v>80</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="21.05">
       <c r="A83" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="13" t="s">
         <v>81</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="21.05">
       <c r="A84" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="13" t="s">
         <v>82</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="21.05">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rinku\Desktop\coding\FAANG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56316754-C465-4BC6-9CB0-A5E1B02374A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7317A283-19A4-49F0-BC44-5624CE9D5C69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1917,10 +1917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C501"/>
+  <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001"/>
@@ -1930,17 +1930,17 @@
     <col min="3" max="3" width="27.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5">
+    <row r="1" spans="1:4" ht="25.5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="B2" s="10" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21.05">
+    <row r="4" spans="1:4" ht="21.05">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1951,10 +1951,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="21.05">
+    <row r="6" spans="1:4" ht="21.05">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1964,8 +1964,11 @@
       <c r="C6" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="21.05">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21.05">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1975,8 +1978,11 @@
       <c r="C7" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="21.05">
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21.05">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1986,8 +1992,11 @@
       <c r="C8" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="21.05">
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21.05">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1997,8 +2006,11 @@
       <c r="C9" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="21.05">
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21.05">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2008,8 +2020,11 @@
       <c r="C10" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="21.05">
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21.05">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -2019,8 +2034,11 @@
       <c r="C11" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="21.05">
+      <c r="D11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21.05">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -2030,8 +2048,11 @@
       <c r="C12" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="21.05">
+      <c r="D12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21.05">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -2041,8 +2062,11 @@
       <c r="C13" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="21.05">
+      <c r="D13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21.05">
       <c r="A14" s="5" t="s">
         <v>466</v>
       </c>
@@ -2052,8 +2076,11 @@
       <c r="C14" s="11" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="21.05">
+      <c r="D14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="21.05">
       <c r="A15" s="5" t="s">
         <v>466</v>
       </c>
@@ -2063,8 +2090,11 @@
       <c r="C15" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="21.05">
+      <c r="D15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21.05">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -2074,8 +2104,11 @@
       <c r="C16" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="21.05">
+      <c r="D16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="21.05">
       <c r="A17" s="5" t="s">
         <v>468</v>
       </c>
@@ -2085,8 +2118,11 @@
       <c r="C17" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="21.05">
+      <c r="D17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="21.05">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -2096,8 +2132,11 @@
       <c r="C18" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="21.05">
+      <c r="D18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21.05">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -2107,8 +2146,11 @@
       <c r="C19" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="21.05">
+      <c r="D19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="21.05">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -2118,8 +2160,11 @@
       <c r="C20" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="21.05">
+      <c r="D20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="21.05">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -2129,8 +2174,11 @@
       <c r="C21" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="21.05">
+      <c r="D21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="21.05">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -2140,8 +2188,11 @@
       <c r="C22" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="21.05">
+      <c r="D22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="21.05">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
@@ -2151,8 +2202,11 @@
       <c r="C23" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="21.05">
+      <c r="D23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21.05">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -2162,8 +2216,11 @@
       <c r="C24" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="21.05">
+      <c r="D24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="21.05">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2173,8 +2230,11 @@
       <c r="C25" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="21.05">
+      <c r="D25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="21.05">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -2184,8 +2244,11 @@
       <c r="C26" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="21.05">
+      <c r="D26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="21.05">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -2195,8 +2258,11 @@
       <c r="C27" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="21.05">
+      <c r="D27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="21.05">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -2206,8 +2272,11 @@
       <c r="C28" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="21.05">
+      <c r="D28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="21.05">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -2217,8 +2286,11 @@
       <c r="C29" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="21.05">
+      <c r="D29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="21.05">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -2228,8 +2300,11 @@
       <c r="C30" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="21.05">
+      <c r="D30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="21.05">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -2239,8 +2314,11 @@
       <c r="C31" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="21.05">
+      <c r="D31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="21.05">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
@@ -2250,8 +2328,11 @@
       <c r="C32" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="21.05">
+      <c r="D32">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="21.05">
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
@@ -2261,8 +2342,11 @@
       <c r="C33" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="21.05">
+      <c r="D33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="21.05">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -2272,8 +2356,11 @@
       <c r="C34" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="21.05">
+      <c r="D34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="21.05">
       <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
@@ -2283,8 +2370,11 @@
       <c r="C35" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="21.05">
+      <c r="D35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="21.05">
       <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
@@ -2294,8 +2384,11 @@
       <c r="C36" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="21.05">
+      <c r="D36">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="21.05">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
@@ -2305,8 +2398,11 @@
       <c r="C37" s="11" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="21.05">
+      <c r="D37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="21.05">
       <c r="A38" s="5" t="s">
         <v>5</v>
       </c>
@@ -2316,8 +2412,11 @@
       <c r="C38" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="21.05">
+      <c r="D38">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="21.05">
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
@@ -2327,8 +2426,11 @@
       <c r="C39" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="21.05">
+      <c r="D39">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="21.05">
       <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
@@ -2338,8 +2440,11 @@
       <c r="C40" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="21.05">
+      <c r="D40">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="21.05">
       <c r="A41" s="5" t="s">
         <v>466</v>
       </c>
@@ -2349,18 +2454,21 @@
       <c r="C41" s="11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="21.05">
+      <c r="D41">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="21.05">
       <c r="A42" s="4"/>
       <c r="B42" s="7"/>
       <c r="C42" s="11"/>
     </row>
-    <row r="43" spans="1:3" ht="21.05">
+    <row r="43" spans="1:4" ht="21.05">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="11"/>
     </row>
-    <row r="44" spans="1:3" ht="21.05">
+    <row r="44" spans="1:4" ht="21.05">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
@@ -2371,7 +2479,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21.05">
+    <row r="45" spans="1:4" ht="21.05">
       <c r="A45" s="8" t="s">
         <v>42</v>
       </c>
@@ -2382,7 +2490,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21.05">
+    <row r="46" spans="1:4" ht="21.05">
       <c r="A46" s="8" t="s">
         <v>42</v>
       </c>
@@ -2393,7 +2501,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21.05">
+    <row r="47" spans="1:4" ht="21.05">
       <c r="A47" s="8" t="s">
         <v>42</v>
       </c>
@@ -2404,7 +2512,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21.05">
+    <row r="48" spans="1:4" ht="21.05">
       <c r="A48" s="8" t="s">
         <v>42</v>
       </c>
@@ -2747,11 +2855,11 @@
       <c r="A80" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>4</v>
+        <v>471</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="21.05">
@@ -2802,154 +2910,154 @@
       <c r="A85" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="13" t="s">
         <v>83</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="21.05">
       <c r="A86" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="13" t="s">
         <v>84</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="21.05">
       <c r="A87" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="13" t="s">
         <v>85</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="21.05">
       <c r="A88" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="13" t="s">
         <v>86</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="21.05">
       <c r="A89" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="13" t="s">
         <v>87</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="21.05">
       <c r="A90" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="21.05">
       <c r="A91" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="21.05">
       <c r="A92" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="21.05">
       <c r="A93" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="21.05">
       <c r="A94" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="13" t="s">
         <v>92</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="21.05">
       <c r="A95" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="13" t="s">
         <v>93</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="21.05">
       <c r="A96" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="13" t="s">
         <v>94</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="21.05">
       <c r="A97" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="13" t="s">
         <v>95</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="21.05">
       <c r="A98" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="13" t="s">
         <v>96</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="99" spans="1:3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rinku\Desktop\coding\FAANG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7317A283-19A4-49F0-BC44-5624CE9D5C69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E272BC60-2139-4D89-9ED9-07A5D2F624DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="474">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1444,6 +1445,9 @@
   </si>
   <si>
     <t>String *</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -1919,8 +1923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001"/>
@@ -3073,154 +3077,154 @@
       <c r="A101" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="13" t="s">
         <v>98</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="21.05">
       <c r="A102" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="13" t="s">
         <v>99</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="21.05">
       <c r="A103" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="13" t="s">
         <v>100</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="21.05">
       <c r="A104" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="13" t="s">
         <v>101</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="21.05">
       <c r="A105" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="13" t="s">
         <v>102</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="21.05">
       <c r="A106" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="16" t="s">
         <v>103</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>4</v>
+        <v>473</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="21.05">
       <c r="A107" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="13" t="s">
         <v>104</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="21.05">
       <c r="A108" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="13" t="s">
         <v>105</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="21.05">
       <c r="A109" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="13" t="s">
         <v>106</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="21.05">
       <c r="A110" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="13" t="s">
         <v>107</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="21.05">
       <c r="A111" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="13" t="s">
         <v>108</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="21.05">
       <c r="A112" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="13" t="s">
         <v>109</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="21.05">
       <c r="A113" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="13" t="s">
         <v>110</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="21.05">
       <c r="A114" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="13" t="s">
         <v>111</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="21.05">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rinku\Desktop\coding\FAANG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E272BC60-2139-4D89-9ED9-07A5D2F624DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A442B738-CFC3-4EB9-A080-B9ECC1FEB16A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="475">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1448,13 +1447,16 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Searching &amp; Sorting *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1547,6 +1549,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1569,7 +1579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1606,6 +1616,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1923,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001"/>
@@ -2648,7 +2659,7 @@
     </row>
     <row r="61" spans="1:3" ht="21.05">
       <c r="A61" s="5" t="s">
-        <v>53</v>
+        <v>472</v>
       </c>
       <c r="B61" s="16" t="s">
         <v>59</v>
@@ -2857,7 +2868,7 @@
     </row>
     <row r="80" spans="1:3" ht="21.05">
       <c r="A80" s="5" t="s">
-        <v>53</v>
+        <v>472</v>
       </c>
       <c r="B80" s="16" t="s">
         <v>78</v>
@@ -3130,7 +3141,7 @@
     </row>
     <row r="106" spans="1:3" ht="21.05">
       <c r="A106" s="5" t="s">
-        <v>97</v>
+        <v>474</v>
       </c>
       <c r="B106" s="16" t="s">
         <v>103</v>
@@ -3231,176 +3242,176 @@
       <c r="A115" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="13" t="s">
         <v>112</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="21.05">
       <c r="A116" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="21.05">
       <c r="A117" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="21.05">
       <c r="A118" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B118" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B118" s="16" t="s">
         <v>115</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>4</v>
+        <v>473</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="21.05">
       <c r="A119" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="13" t="s">
         <v>116</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="21.05">
       <c r="A120" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B120" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B120" s="16" t="s">
         <v>117</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>4</v>
+        <v>473</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="21.05">
       <c r="A121" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="13" t="s">
         <v>118</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="21.05">
       <c r="A122" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="13" t="s">
         <v>119</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="21.05">
       <c r="A123" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="13" t="s">
         <v>120</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="21.05">
       <c r="A124" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="13" t="s">
         <v>121</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="21.05">
       <c r="A125" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="13" t="s">
         <v>122</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="21.05">
       <c r="A126" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="13" t="s">
         <v>123</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="21.05">
       <c r="A127" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B127" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B127" s="16" t="s">
         <v>124</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>4</v>
+        <v>473</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="21.05">
       <c r="A128" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="13" t="s">
         <v>125</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="21.05">
       <c r="A129" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="13" t="s">
         <v>126</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="21.05">
       <c r="A130" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="13" t="s">
         <v>127</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="21.05">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rinku\Desktop\coding\FAANG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A442B738-CFC3-4EB9-A080-B9ECC1FEB16A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1D1AF6-7470-4884-8926-5BEE98D440C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1934,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149:C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001"/>
@@ -1979,7 +1979,7 @@
       <c r="C6" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       <c r="C7" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>2</v>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       <c r="C8" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>3</v>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       <c r="C9" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       <c r="C10" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       <c r="C11" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>6</v>
       </c>
     </row>
@@ -2063,7 +2063,7 @@
       <c r="C12" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>7</v>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       <c r="C13" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>8</v>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       <c r="C14" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>9</v>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       <c r="C15" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>10</v>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       <c r="C16" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       <c r="C17" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>12</v>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       <c r="C18" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>13</v>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       <c r="C19" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>14</v>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
       <c r="C20" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>15</v>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       <c r="C21" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2203,7 +2203,7 @@
       <c r="C22" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>17</v>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       <c r="C23" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>18</v>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       <c r="C24" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <v>19</v>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
       <c r="C25" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <v>20</v>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
       <c r="C26" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="4">
         <v>21</v>
       </c>
     </row>
@@ -2273,7 +2273,7 @@
       <c r="C27" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <v>22</v>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="C28" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4">
         <v>23</v>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       <c r="C29" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="4">
         <v>24</v>
       </c>
     </row>
@@ -2315,7 +2315,7 @@
       <c r="C30" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="4">
         <v>25</v>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       <c r="C31" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="4">
         <v>26</v>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       <c r="C32" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="4">
         <v>27</v>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       <c r="C33" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="4">
         <v>28</v>
       </c>
     </row>
@@ -2371,7 +2371,7 @@
       <c r="C34" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="4">
         <v>29</v>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       <c r="C35" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="4">
         <v>30</v>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       <c r="C36" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="4">
         <v>31</v>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       <c r="C37" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="4">
         <v>32</v>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       <c r="C38" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="4">
         <v>33</v>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       <c r="C39" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="4">
         <v>34</v>
       </c>
     </row>
@@ -2455,7 +2455,7 @@
       <c r="C40" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="4">
         <v>35</v>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       <c r="C41" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="4">
         <v>36</v>
       </c>
     </row>
@@ -2477,11 +2477,13 @@
       <c r="A42" s="4"/>
       <c r="B42" s="7"/>
       <c r="C42" s="11"/>
+      <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" ht="21.05">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="11"/>
+      <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" ht="21.05">
       <c r="A44" s="8" t="s">
@@ -3418,66 +3420,66 @@
       <c r="A131" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="13" t="s">
         <v>128</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="21.05">
       <c r="A132" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B132" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B132" s="16" t="s">
         <v>129</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="21.05">
       <c r="A133" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="16" t="s">
         <v>130</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>4</v>
+        <v>473</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="21.05">
       <c r="A134" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="13" t="s">
         <v>131</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="21.05">
       <c r="A135" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="13" t="s">
         <v>132</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="21.05">
       <c r="A136" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="13" t="s">
         <v>133</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3493,132 +3495,132 @@
       <c r="A139" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="13" t="s">
         <v>135</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="21.05">
       <c r="A140" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="13" t="s">
         <v>136</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="21.05">
       <c r="A141" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="13" t="s">
         <v>137</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="21.05">
       <c r="A142" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="13" t="s">
         <v>138</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="21.05">
       <c r="A143" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="13" t="s">
         <v>139</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="21.05">
       <c r="A144" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="13" t="s">
         <v>140</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="21.05">
       <c r="A145" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="13" t="s">
         <v>141</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21.05">
       <c r="A146" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="13" t="s">
         <v>142</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="21.05">
       <c r="A147" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="13" t="s">
         <v>143</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="21.05">
       <c r="A148" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="13" t="s">
         <v>144</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="21.05">
       <c r="A149" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="13" t="s">
         <v>145</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="21.05">
       <c r="A150" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="13" t="s">
         <v>146</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="21.05">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rinku\Desktop\coding\FAANG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1D1AF6-7470-4884-8926-5BEE98D440C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE1AC0A-B5FF-4C07-B572-C98BE62BBD95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1934,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149:C150"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001"/>
@@ -3627,132 +3627,132 @@
       <c r="A151" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="13" t="s">
         <v>147</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="21.05">
       <c r="A152" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="16" t="s">
         <v>148</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="21.05">
       <c r="A153" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="13" t="s">
         <v>149</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="21.05">
       <c r="A154" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" s="13" t="s">
         <v>150</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="21.05">
       <c r="A155" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="13" t="s">
         <v>151</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="21.05">
       <c r="A156" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="13" t="s">
         <v>152</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="21.05">
       <c r="A157" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="13" t="s">
         <v>153</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="21.05">
       <c r="A158" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="13" t="s">
         <v>154</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="21.05">
       <c r="A159" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="13" t="s">
         <v>155</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="21.05">
       <c r="A160" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="13" t="s">
         <v>156</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="21.05">
       <c r="A161" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="13" t="s">
         <v>157</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="21.05">
       <c r="A162" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="13" t="s">
         <v>158</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="21.05">
@@ -3770,7 +3770,7 @@
       <c r="A164" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B164" s="17" t="s">
         <v>160</v>
       </c>
       <c r="C164" s="11" t="s">
@@ -3781,11 +3781,11 @@
       <c r="A165" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="B165" s="17" t="s">
         <v>161</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="21.05">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rinku\Desktop\coding\FAANG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE1AC0A-B5FF-4C07-B572-C98BE62BBD95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20C5C83-4092-4981-A6D6-A78C07396BCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1558,12 +1558,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA5454"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1579,7 +1591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1617,6 +1629,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1624,6 +1642,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFA5454"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1934,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C181" sqref="C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001"/>
@@ -1976,7 +1999,7 @@
       <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D6" s="4">
@@ -1990,7 +2013,7 @@
       <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D7" s="4">
@@ -2004,7 +2027,7 @@
       <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D8" s="4">
@@ -2018,7 +2041,7 @@
       <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D9" s="4">
@@ -2032,7 +2055,7 @@
       <c r="B10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D10" s="4">
@@ -2046,7 +2069,7 @@
       <c r="B11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D11" s="4">
@@ -2060,7 +2083,7 @@
       <c r="B12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D12" s="4">
@@ -2074,7 +2097,7 @@
       <c r="B13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D13" s="4">
@@ -2088,7 +2111,7 @@
       <c r="B14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="20" t="s">
         <v>467</v>
       </c>
       <c r="D14" s="4">
@@ -2102,7 +2125,7 @@
       <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="20" t="s">
         <v>465</v>
       </c>
       <c r="D15" s="4">
@@ -2116,7 +2139,7 @@
       <c r="B16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D16" s="4">
@@ -2130,7 +2153,7 @@
       <c r="B17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="20" t="s">
         <v>465</v>
       </c>
       <c r="D17" s="4">
@@ -2144,7 +2167,7 @@
       <c r="B18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D18" s="4">
@@ -2158,7 +2181,7 @@
       <c r="B19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D19" s="4">
@@ -2172,7 +2195,7 @@
       <c r="B20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D20" s="4">
@@ -2186,7 +2209,7 @@
       <c r="B21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D21" s="4">
@@ -2200,7 +2223,7 @@
       <c r="B22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D22" s="4">
@@ -2214,7 +2237,7 @@
       <c r="B23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D23" s="4">
@@ -2228,7 +2251,7 @@
       <c r="B24" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D24" s="4">
@@ -2242,7 +2265,7 @@
       <c r="B25" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D25" s="4">
@@ -2256,7 +2279,7 @@
       <c r="B26" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D26" s="4">
@@ -2270,7 +2293,7 @@
       <c r="B27" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D27" s="4">
@@ -2284,7 +2307,7 @@
       <c r="B28" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D28" s="4">
@@ -2298,7 +2321,7 @@
       <c r="B29" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D29" s="4">
@@ -2312,7 +2335,7 @@
       <c r="B30" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D30" s="4">
@@ -2326,7 +2349,7 @@
       <c r="B31" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D31" s="4">
@@ -2340,7 +2363,7 @@
       <c r="B32" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D32" s="4">
@@ -2354,7 +2377,7 @@
       <c r="B33" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D33" s="4">
@@ -2368,7 +2391,7 @@
       <c r="B34" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D34" s="4">
@@ -2382,7 +2405,7 @@
       <c r="B35" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D35" s="4">
@@ -2396,7 +2419,7 @@
       <c r="B36" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D36" s="4">
@@ -2410,7 +2433,7 @@
       <c r="B37" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="20" t="s">
         <v>469</v>
       </c>
       <c r="D37" s="4">
@@ -2424,7 +2447,7 @@
       <c r="B38" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D38" s="4">
@@ -2438,7 +2461,7 @@
       <c r="B39" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D39" s="4">
@@ -2452,7 +2475,7 @@
       <c r="B40" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D40" s="4">
@@ -2466,7 +2489,7 @@
       <c r="B41" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="20" t="s">
         <v>465</v>
       </c>
       <c r="D41" s="4">
@@ -2476,13 +2499,13 @@
     <row r="42" spans="1:4" ht="21.05">
       <c r="A42" s="4"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="11"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" ht="21.05">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="11"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" ht="21.05">
@@ -2492,7 +2515,7 @@
       <c r="B44" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2503,7 +2526,7 @@
       <c r="B45" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2514,7 +2537,7 @@
       <c r="B46" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2525,7 +2548,7 @@
       <c r="B47" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2536,7 +2559,7 @@
       <c r="B48" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2547,7 +2570,7 @@
       <c r="B49" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="20" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2558,7 +2581,7 @@
       <c r="B50" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2569,7 +2592,7 @@
       <c r="B51" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2580,7 +2603,7 @@
       <c r="B52" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2591,18 +2614,18 @@
       <c r="B53" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="19" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="4"/>
-      <c r="C54" s="11"/>
+      <c r="C54" s="19"/>
     </row>
     <row r="55" spans="1:3" ht="21.05">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
-      <c r="C55" s="11"/>
+      <c r="C55" s="19"/>
     </row>
     <row r="56" spans="1:3" ht="21.05">
       <c r="A56" s="5" t="s">
@@ -2611,7 +2634,7 @@
       <c r="B56" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2622,7 +2645,7 @@
       <c r="B57" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2633,7 +2656,7 @@
       <c r="B58" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2644,7 +2667,7 @@
       <c r="B59" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2655,7 +2678,7 @@
       <c r="B60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2666,7 +2689,7 @@
       <c r="B61" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="20" t="s">
         <v>471</v>
       </c>
     </row>
@@ -2677,7 +2700,7 @@
       <c r="B62" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2688,7 +2711,7 @@
       <c r="B63" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2699,7 +2722,7 @@
       <c r="B64" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2710,7 +2733,7 @@
       <c r="B65" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2721,7 +2744,7 @@
       <c r="B66" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2732,7 +2755,7 @@
       <c r="B67" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2743,7 +2766,7 @@
       <c r="B68" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="20" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2754,7 +2777,7 @@
       <c r="B69" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2765,7 +2788,7 @@
       <c r="B70" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2776,7 +2799,7 @@
       <c r="B71" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2787,7 +2810,7 @@
       <c r="B72" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2798,7 +2821,7 @@
       <c r="B73" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="20" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2809,7 +2832,7 @@
       <c r="B74" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="20" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2820,7 +2843,7 @@
       <c r="B75" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2831,7 +2854,7 @@
       <c r="B76" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2842,7 +2865,7 @@
       <c r="B77" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="20" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2853,7 +2876,7 @@
       <c r="B78" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2864,7 +2887,7 @@
       <c r="B79" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2875,7 +2898,7 @@
       <c r="B80" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="20" t="s">
         <v>471</v>
       </c>
     </row>
@@ -2886,7 +2909,7 @@
       <c r="B81" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2897,7 +2920,7 @@
       <c r="B82" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2908,7 +2931,7 @@
       <c r="B83" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2919,7 +2942,7 @@
       <c r="B84" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2930,7 +2953,7 @@
       <c r="B85" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2941,7 +2964,7 @@
       <c r="B86" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2952,7 +2975,7 @@
       <c r="B87" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2963,7 +2986,7 @@
       <c r="B88" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2974,7 +2997,7 @@
       <c r="B89" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2985,7 +3008,7 @@
       <c r="B90" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2996,7 +3019,7 @@
       <c r="B91" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3007,7 +3030,7 @@
       <c r="B92" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3018,7 +3041,7 @@
       <c r="B93" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3029,7 +3052,7 @@
       <c r="B94" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3040,7 +3063,7 @@
       <c r="B95" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3051,7 +3074,7 @@
       <c r="B96" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C96" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3062,7 +3085,7 @@
       <c r="B97" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3073,7 +3096,7 @@
       <c r="B98" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3093,7 +3116,7 @@
       <c r="B101" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3104,7 +3127,7 @@
       <c r="B102" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3115,7 +3138,7 @@
       <c r="B103" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3126,7 +3149,7 @@
       <c r="B104" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3137,7 +3160,7 @@
       <c r="B105" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3148,7 +3171,7 @@
       <c r="B106" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="20" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3159,7 +3182,7 @@
       <c r="B107" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3170,7 +3193,7 @@
       <c r="B108" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3181,7 +3204,7 @@
       <c r="B109" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="C109" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3192,7 +3215,7 @@
       <c r="B110" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C110" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3203,7 +3226,7 @@
       <c r="B111" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3214,7 +3237,7 @@
       <c r="B112" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3225,7 +3248,7 @@
       <c r="B113" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3236,7 +3259,7 @@
       <c r="B114" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3247,7 +3270,7 @@
       <c r="B115" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C115" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3258,7 +3281,7 @@
       <c r="B116" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3269,7 +3292,7 @@
       <c r="B117" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3280,7 +3303,7 @@
       <c r="B118" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="20" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3291,7 +3314,7 @@
       <c r="B119" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C119" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3302,7 +3325,7 @@
       <c r="B120" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="20" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3313,7 +3336,7 @@
       <c r="B121" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C121" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3324,7 +3347,7 @@
       <c r="B122" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C122" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3335,7 +3358,7 @@
       <c r="B123" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3346,7 +3369,7 @@
       <c r="B124" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C124" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3357,7 +3380,7 @@
       <c r="B125" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="C125" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3368,7 +3391,7 @@
       <c r="B126" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="C126" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3379,7 +3402,7 @@
       <c r="B127" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="C127" s="20" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3390,7 +3413,7 @@
       <c r="B128" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C128" s="11" t="s">
+      <c r="C128" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3401,7 +3424,7 @@
       <c r="B129" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="C129" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3412,7 +3435,7 @@
       <c r="B130" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C130" s="11" t="s">
+      <c r="C130" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3423,7 +3446,7 @@
       <c r="B131" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="C131" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3434,7 +3457,7 @@
       <c r="B132" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C132" s="11" t="s">
+      <c r="C132" s="20" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3445,7 +3468,7 @@
       <c r="B133" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="C133" s="20" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3456,7 +3479,7 @@
       <c r="B134" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C134" s="11" t="s">
+      <c r="C134" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3467,7 +3490,7 @@
       <c r="B135" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C135" s="11" t="s">
+      <c r="C135" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3478,7 +3501,7 @@
       <c r="B136" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C136" s="11" t="s">
+      <c r="C136" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3498,7 +3521,7 @@
       <c r="B139" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C139" s="11" t="s">
+      <c r="C139" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3509,7 +3532,7 @@
       <c r="B140" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="C140" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3520,7 +3543,7 @@
       <c r="B141" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C141" s="11" t="s">
+      <c r="C141" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3531,7 +3554,7 @@
       <c r="B142" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C142" s="11" t="s">
+      <c r="C142" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3542,7 +3565,7 @@
       <c r="B143" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C143" s="11" t="s">
+      <c r="C143" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3553,7 +3576,7 @@
       <c r="B144" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C144" s="11" t="s">
+      <c r="C144" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3564,7 +3587,7 @@
       <c r="B145" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C145" s="11" t="s">
+      <c r="C145" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3575,7 +3598,7 @@
       <c r="B146" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C146" s="11" t="s">
+      <c r="C146" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3586,7 +3609,7 @@
       <c r="B147" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="C147" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3597,7 +3620,7 @@
       <c r="B148" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C148" s="11" t="s">
+      <c r="C148" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3608,7 +3631,7 @@
       <c r="B149" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C149" s="11" t="s">
+      <c r="C149" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3619,7 +3642,7 @@
       <c r="B150" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C150" s="11" t="s">
+      <c r="C150" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3630,7 +3653,7 @@
       <c r="B151" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C151" s="11" t="s">
+      <c r="C151" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3641,7 +3664,7 @@
       <c r="B152" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C152" s="11" t="s">
+      <c r="C152" s="20" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3652,7 +3675,7 @@
       <c r="B153" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C153" s="11" t="s">
+      <c r="C153" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3663,7 +3686,7 @@
       <c r="B154" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C154" s="11" t="s">
+      <c r="C154" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3674,7 +3697,7 @@
       <c r="B155" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C155" s="11" t="s">
+      <c r="C155" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3685,7 +3708,7 @@
       <c r="B156" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C156" s="11" t="s">
+      <c r="C156" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3696,7 +3719,7 @@
       <c r="B157" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C157" s="11" t="s">
+      <c r="C157" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3707,7 +3730,7 @@
       <c r="B158" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C158" s="11" t="s">
+      <c r="C158" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3718,7 +3741,7 @@
       <c r="B159" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C159" s="11" t="s">
+      <c r="C159" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3729,7 +3752,7 @@
       <c r="B160" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C160" s="11" t="s">
+      <c r="C160" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3740,7 +3763,7 @@
       <c r="B161" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C161" s="11" t="s">
+      <c r="C161" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3751,7 +3774,7 @@
       <c r="B162" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C162" s="11" t="s">
+      <c r="C162" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3759,11 +3782,11 @@
       <c r="A163" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C163" s="11" t="s">
-        <v>4</v>
+      <c r="C163" s="20" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="21.05">
@@ -3773,8 +3796,8 @@
       <c r="B164" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C164" s="11" t="s">
-        <v>4</v>
+      <c r="C164" s="19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="21.05">
@@ -3784,7 +3807,7 @@
       <c r="B165" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="C165" s="11" t="s">
+      <c r="C165" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3792,99 +3815,99 @@
       <c r="A166" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C166" s="11" t="s">
-        <v>4</v>
+      <c r="C166" s="19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="21.05">
       <c r="A167" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C167" s="11" t="s">
-        <v>4</v>
+      <c r="C167" s="19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="21.05">
       <c r="A168" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C168" s="11" t="s">
-        <v>4</v>
+      <c r="C168" s="20" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="21.05">
       <c r="A169" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B169" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C169" s="11" t="s">
-        <v>4</v>
+      <c r="C169" s="19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="21.05">
       <c r="A170" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C170" s="11" t="s">
-        <v>4</v>
+      <c r="C170" s="20" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="21.05">
       <c r="A171" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C171" s="11" t="s">
-        <v>4</v>
+      <c r="C171" s="19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="21.05">
       <c r="A172" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C172" s="11" t="s">
-        <v>4</v>
+      <c r="C172" s="19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="21.05">
       <c r="A173" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C173" s="11" t="s">
-        <v>4</v>
+      <c r="C173" s="19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="21.05">
       <c r="A174" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C174" s="11" t="s">
-        <v>4</v>
+      <c r="C174" s="20" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3900,55 +3923,55 @@
       <c r="A177" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C177" s="11" t="s">
-        <v>4</v>
+      <c r="C177" s="19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="21.05">
       <c r="A178" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B178" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C178" s="11" t="s">
-        <v>4</v>
+      <c r="C178" s="19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="21.05">
       <c r="A179" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C179" s="11" t="s">
-        <v>4</v>
+      <c r="C179" s="19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="21.05">
       <c r="A180" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B180" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C180" s="11" t="s">
-        <v>4</v>
+      <c r="C180" s="19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="21.05">
       <c r="A181" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B181" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C181" s="11" t="s">
-        <v>4</v>
+      <c r="C181" s="19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="21.05">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rinku\Desktop\coding\FAANG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20C5C83-4092-4981-A6D6-A78C07396BCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D22647-C8DF-45CD-84A7-DE032EBD92F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1957,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C181" sqref="C181"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C191" sqref="C191:C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001"/>
@@ -3978,121 +3978,121 @@
       <c r="A182" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B182" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="C182" s="11" t="s">
-        <v>4</v>
+      <c r="C182" s="19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="21.05">
       <c r="A183" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="B183" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C183" s="11" t="s">
-        <v>4</v>
+      <c r="C183" s="19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="21.05">
       <c r="A184" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B184" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C184" s="11" t="s">
-        <v>4</v>
+      <c r="C184" s="19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="21.05">
       <c r="A185" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B185" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C185" s="11" t="s">
-        <v>4</v>
+      <c r="C185" s="19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="21.05">
       <c r="A186" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B186" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C186" s="11" t="s">
-        <v>4</v>
+      <c r="C186" s="19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="21.05">
       <c r="A187" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B187" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C187" s="11" t="s">
-        <v>4</v>
+      <c r="C187" s="19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="21.05">
       <c r="A188" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C188" s="11" t="s">
-        <v>4</v>
+      <c r="C188" s="19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="21.05">
       <c r="A189" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B189" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C189" s="11" t="s">
-        <v>4</v>
+      <c r="C189" s="20" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="21.05">
       <c r="A190" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B190" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C190" s="11" t="s">
-        <v>4</v>
+      <c r="C190" s="19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="21.05">
       <c r="A191" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B191" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C191" s="11" t="s">
-        <v>4</v>
+      <c r="C191" s="19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="21.05">
       <c r="A192" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B192" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C192" s="11" t="s">
-        <v>4</v>
+      <c r="C192" s="19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="21.05">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rinku\Desktop\coding\FAANG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D22647-C8DF-45CD-84A7-DE032EBD92F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB7BF5E-AA27-4BD9-9E12-25BB1BACAB5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="564">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -396,9 +396,6 @@
     <t>Book Allocation Problem</t>
   </si>
   <si>
-    <t>EKOSPOJ:</t>
-  </si>
-  <si>
     <t>Job Scheduling Algo</t>
   </si>
   <si>
@@ -1450,13 +1447,283 @@
   </si>
   <si>
     <t>Searching &amp; Sorting *</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>basic reversal</t>
+  </si>
+  <si>
+    <t>Minimum number of comparison</t>
+  </si>
+  <si>
+    <t>kth smallest using partition function</t>
+  </si>
+  <si>
+    <t>DNF sort</t>
+  </si>
+  <si>
+    <t>two pointer approach</t>
+  </si>
+  <si>
+    <t>using unordered map</t>
+  </si>
+  <si>
+    <t>basic rotation</t>
+  </si>
+  <si>
+    <t>Kadane's Algorithm</t>
+  </si>
+  <si>
+    <t>two pointer approach (Intution ⭐)</t>
+  </si>
+  <si>
+    <t>Intution</t>
+  </si>
+  <si>
+    <t>cycle detection in linked list</t>
+  </si>
+  <si>
+    <t>Gap Algorithm</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Merge Sort Algorithm</t>
+  </si>
+  <si>
+    <t>intution ⭐</t>
+  </si>
+  <si>
+    <t>basic three pointer</t>
+  </si>
+  <si>
+    <t>basic two pointer</t>
+  </si>
+  <si>
+    <t>prefix sum array</t>
+  </si>
+  <si>
+    <t>Big Integer Class</t>
+  </si>
+  <si>
+    <t>Intution ⭐</t>
+  </si>
+  <si>
+    <t>Intitution ⭐</t>
+  </si>
+  <si>
+    <t>basic hashing question</t>
+  </si>
+  <si>
+    <t>sorting</t>
+  </si>
+  <si>
+    <t>basic check</t>
+  </si>
+  <si>
+    <t>maths formula for median</t>
+  </si>
+  <si>
+    <t>Highly Intutional</t>
+  </si>
+  <si>
+    <t>basic traversal</t>
+  </si>
+  <si>
+    <t>intution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basic priority queue </t>
+  </si>
+  <si>
+    <t>stack implementation</t>
+  </si>
+  <si>
+    <t>prefix value</t>
+  </si>
+  <si>
+    <t>basic intution</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>recursion</t>
+  </si>
+  <si>
+    <t>dp problem</t>
+  </si>
+  <si>
+    <t>two approaches required</t>
+  </si>
+  <si>
+    <t>basic implementation</t>
+  </si>
+  <si>
+    <t>Hard (implementation)</t>
+  </si>
+  <si>
+    <t>stack problem</t>
+  </si>
+  <si>
+    <t>dp + memoization</t>
+  </si>
+  <si>
+    <t>hashing technique</t>
+  </si>
+  <si>
+    <t>LPS ⭐</t>
+  </si>
+  <si>
+    <t>Basic recursion Question</t>
+  </si>
+  <si>
+    <t>dp hard problem</t>
+  </si>
+  <si>
+    <t>basic if else</t>
+  </si>
+  <si>
+    <t>basic looping problem</t>
+  </si>
+  <si>
+    <t>unorderedMap problem</t>
+  </si>
+  <si>
+    <t>basic dp problem</t>
+  </si>
+  <si>
+    <t>Looping and logic building</t>
+  </si>
+  <si>
+    <t>Sliding window Problem</t>
+  </si>
+  <si>
+    <t>Two approaches</t>
+  </si>
+  <si>
+    <t>hashing and two pointer</t>
+  </si>
+  <si>
+    <t>logical</t>
+  </si>
+  <si>
+    <t>mapping problem</t>
+  </si>
+  <si>
+    <t>binary search</t>
+  </si>
+  <si>
+    <t>linear search</t>
+  </si>
+  <si>
+    <t>Maths Logic</t>
+  </si>
+  <si>
+    <t>using map</t>
+  </si>
+  <si>
+    <t>sorting and two pointer approach</t>
+  </si>
+  <si>
+    <t>hap alogrithm</t>
+  </si>
+  <si>
+    <t>prefix sum problem</t>
+  </si>
+  <si>
+    <t>stable_sort() + comparator + __builtin_popcount</t>
+  </si>
+  <si>
+    <t>merging</t>
+  </si>
+  <si>
+    <t>bishu and Soldiers</t>
+  </si>
+  <si>
+    <t>divide and conquer</t>
+  </si>
+  <si>
+    <t>if else problem</t>
+  </si>
+  <si>
+    <t>merge sort</t>
+  </si>
+  <si>
+    <t>intution in Merging</t>
+  </si>
+  <si>
+    <t>Intuttion</t>
+  </si>
+  <si>
+    <t>basic logic</t>
+  </si>
+  <si>
+    <t>fast and slow pointer</t>
+  </si>
+  <si>
+    <t>using set</t>
+  </si>
+  <si>
+    <t>carry concept</t>
+  </si>
+  <si>
+    <t>two pointer and length approach</t>
+  </si>
+  <si>
+    <t>merging and finding middle node</t>
+  </si>
+  <si>
+    <t>traversal</t>
+  </si>
+  <si>
+    <t>traversal and basic logic</t>
+  </si>
+  <si>
+    <t>basic approach</t>
+  </si>
+  <si>
+    <t>merging concept</t>
+  </si>
+  <si>
+    <t>reversing intution</t>
+  </si>
+  <si>
+    <t>using queue</t>
+  </si>
+  <si>
+    <t>recursion + stack</t>
+  </si>
+  <si>
+    <t>recursion + two stack</t>
+  </si>
+  <si>
+    <t>recursion  + maxLevel approach</t>
+  </si>
+  <si>
+    <t>recursion + maxLevel approach</t>
+  </si>
+  <si>
+    <t>recursion + hr + level approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basic recursion </t>
+  </si>
+  <si>
+    <t>recursion and level approach</t>
+  </si>
+  <si>
+    <t>diving the problem approach</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1557,6 +1824,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1591,7 +1866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1633,6 +1908,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1955,10 +2236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:D501"/>
+  <dimension ref="A1:G501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C191" sqref="C191:C192"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001"/>
@@ -1968,17 +2249,17 @@
     <col min="3" max="3" width="27.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5">
+    <row r="1" spans="1:6" ht="25.5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="B2" s="10" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="21.05">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21.05">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1988,11 +2269,19 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="21.05">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="21.05">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -2000,13 +2289,15 @@
         <v>6</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" ht="21.05">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2014,13 +2305,15 @@
         <v>7</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="1:6" ht="21.05">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2028,13 +2321,15 @@
         <v>8</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D8" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="1:6" ht="21.05">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2042,13 +2337,15 @@
         <v>9</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D9" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="1:6" ht="21.05">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2056,13 +2353,15 @@
         <v>10</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D10" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="1:6" ht="21.05">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -2070,13 +2369,15 @@
         <v>11</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D11" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:6" ht="21.05">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -2084,13 +2385,15 @@
         <v>12</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D12" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="1:6" ht="21.05">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -2098,41 +2401,47 @@
         <v>13</v>
       </c>
       <c r="C13" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:6" ht="21.05">
+      <c r="A14" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="D13" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="21.05">
-      <c r="A14" s="5" t="s">
-        <v>466</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>467</v>
-      </c>
-      <c r="D14" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="21.05">
+        <v>466</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:6" ht="21.05">
       <c r="A15" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="D15" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:6" ht="21.05">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -2140,27 +2449,31 @@
         <v>16</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D16" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="1:6" ht="21.05">
       <c r="A17" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="D17" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:6" ht="21.05">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -2168,13 +2481,15 @@
         <v>18</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D18" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="1:6" ht="21.05">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -2182,13 +2497,15 @@
         <v>19</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D19" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="1:6" ht="21.05">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -2196,13 +2513,15 @@
         <v>20</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D20" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="1:6" ht="21.05">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -2210,13 +2529,15 @@
         <v>21</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D21" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="21.05">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -2224,13 +2545,15 @@
         <v>22</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D22" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" ht="21.05">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
@@ -2238,13 +2561,15 @@
         <v>23</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D23" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="21.05">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -2252,13 +2577,15 @@
         <v>24</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D24" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="21.05">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2266,13 +2593,15 @@
         <v>25</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D25" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" ht="21.05">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -2280,13 +2609,15 @@
         <v>26</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D26" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" ht="21.05">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -2294,13 +2625,15 @@
         <v>27</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D27" s="4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" ht="21.05">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -2308,13 +2641,15 @@
         <v>28</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D28" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" ht="21.05">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -2322,13 +2657,15 @@
         <v>29</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D29" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.05">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -2336,13 +2673,15 @@
         <v>30</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D30" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+    </row>
+    <row r="31" spans="1:6" ht="21.05">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -2350,13 +2689,15 @@
         <v>31</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D31" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="1:6" ht="21.05">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
@@ -2364,13 +2705,15 @@
         <v>32</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D32" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" ht="21.05">
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
@@ -2378,13 +2721,15 @@
         <v>33</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D33" s="4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" ht="21.05">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -2392,13 +2737,15 @@
         <v>34</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D34" s="4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" ht="21.05">
       <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
@@ -2406,13 +2753,15 @@
         <v>35</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D35" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" ht="21.05">
       <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
@@ -2420,13 +2769,15 @@
         <v>36</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D36" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" ht="21.05">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
@@ -2434,13 +2785,13 @@
         <v>37</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="D37" s="4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="21.05">
+        <v>468</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" ht="21.05">
       <c r="A38" s="5" t="s">
         <v>5</v>
       </c>
@@ -2448,13 +2799,15 @@
         <v>38</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D38" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" ht="21.05">
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
@@ -2462,13 +2815,15 @@
         <v>39</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="D39" s="4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" ht="21.05">
       <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
@@ -2476,39 +2831,47 @@
         <v>40</v>
       </c>
       <c r="C40" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" ht="21.05">
+      <c r="A41" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="D40" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="21.05">
-      <c r="A41" s="5" t="s">
-        <v>466</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="D41" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" ht="21.05">
       <c r="A42" s="4"/>
       <c r="B42" s="7"/>
       <c r="C42" s="19"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" ht="21.05">
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" ht="21.05">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="19"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" ht="21.05">
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" ht="21.05">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
@@ -2516,10 +2879,15 @@
         <v>43</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" ht="21.05">
       <c r="A45" s="8" t="s">
         <v>42</v>
       </c>
@@ -2527,10 +2895,15 @@
         <v>44</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" ht="21.05">
       <c r="A46" s="8" t="s">
         <v>42</v>
       </c>
@@ -2538,10 +2911,15 @@
         <v>45</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" ht="21.05">
       <c r="A47" s="8" t="s">
         <v>42</v>
       </c>
@@ -2549,10 +2927,15 @@
         <v>46</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:6" ht="21.05">
       <c r="A48" s="8" t="s">
         <v>42</v>
       </c>
@@ -2560,21 +2943,31 @@
         <v>47</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6" ht="21.05">
       <c r="A49" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B49" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="1:6" ht="21.05">
       <c r="A50" s="8" t="s">
         <v>42</v>
       </c>
@@ -2582,10 +2975,15 @@
         <v>49</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" ht="21.05">
       <c r="A51" s="8" t="s">
         <v>42</v>
       </c>
@@ -2593,10 +2991,15 @@
         <v>50</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" ht="21.05">
       <c r="A52" s="8" t="s">
         <v>42</v>
       </c>
@@ -2604,10 +3007,15 @@
         <v>51</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" ht="21.05">
       <c r="A53" s="8" t="s">
         <v>42</v>
       </c>
@@ -2615,19 +3023,30 @@
         <v>52</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>464</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="4"/>
       <c r="C54" s="19"/>
-    </row>
-    <row r="55" spans="1:3" ht="21.05">
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="1:6" ht="21.05">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
       <c r="C55" s="19"/>
-    </row>
-    <row r="56" spans="1:3" ht="21.05">
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:6" ht="21.05">
       <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
@@ -2635,10 +3054,15 @@
         <v>54</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" ht="21.05">
       <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
@@ -2646,10 +3070,15 @@
         <v>55</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" ht="21.05">
       <c r="A58" s="5" t="s">
         <v>53</v>
       </c>
@@ -2657,10 +3086,15 @@
         <v>56</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="1:6" ht="21.05">
       <c r="A59" s="5" t="s">
         <v>53</v>
       </c>
@@ -2668,10 +3102,13 @@
         <v>57</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="1:6" ht="21.05">
       <c r="A60" s="5" t="s">
         <v>53</v>
       </c>
@@ -2679,21 +3116,29 @@
         <v>58</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:6" ht="21.05">
       <c r="A61" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B61" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="21.05">
+        <v>470</v>
+      </c>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" ht="21.05">
       <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
@@ -2701,10 +3146,15 @@
         <v>60</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:6" ht="21.05">
       <c r="A63" s="5" t="s">
         <v>53</v>
       </c>
@@ -2712,10 +3162,15 @@
         <v>61</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="1:6" ht="21.05">
       <c r="A64" s="5" t="s">
         <v>53</v>
       </c>
@@ -2723,10 +3178,15 @@
         <v>62</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="1:6" ht="21.05">
       <c r="A65" s="5" t="s">
         <v>53</v>
       </c>
@@ -2734,10 +3194,15 @@
         <v>63</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" spans="1:6" ht="21.05">
       <c r="A66" s="5" t="s">
         <v>53</v>
       </c>
@@ -2745,10 +3210,15 @@
         <v>64</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+    </row>
+    <row r="67" spans="1:6" ht="21.05">
       <c r="A67" s="5" t="s">
         <v>53</v>
       </c>
@@ -2756,21 +3226,31 @@
         <v>65</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+    </row>
+    <row r="68" spans="1:6" ht="21.05">
       <c r="A68" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B68" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+    </row>
+    <row r="69" spans="1:6" ht="21.05">
       <c r="A69" s="5" t="s">
         <v>53</v>
       </c>
@@ -2778,10 +3258,15 @@
         <v>67</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" spans="1:6" ht="21.05">
       <c r="A70" s="5" t="s">
         <v>53</v>
       </c>
@@ -2789,10 +3274,15 @@
         <v>68</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" ht="21.05">
       <c r="A71" s="5" t="s">
         <v>53</v>
       </c>
@@ -2800,10 +3290,15 @@
         <v>69</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6" ht="21.05">
       <c r="A72" s="5" t="s">
         <v>53</v>
       </c>
@@ -2811,32 +3306,47 @@
         <v>70</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:6" ht="21.05">
       <c r="A73" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B73" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>515</v>
+      </c>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:6" ht="21.05">
       <c r="A74" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B74" s="16" t="s">
         <v>72</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="1:6" ht="21.05">
       <c r="A75" s="5" t="s">
         <v>53</v>
       </c>
@@ -2844,10 +3354,15 @@
         <v>73</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="1:6" ht="21.05">
       <c r="A76" s="5" t="s">
         <v>53</v>
       </c>
@@ -2855,21 +3370,31 @@
         <v>74</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6" ht="21.05">
       <c r="A77" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B77" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:6" ht="21.05">
       <c r="A78" s="5" t="s">
         <v>53</v>
       </c>
@@ -2877,10 +3402,15 @@
         <v>76</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="1:6" ht="21.05">
       <c r="A79" s="5" t="s">
         <v>53</v>
       </c>
@@ -2888,21 +3418,29 @@
         <v>77</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:6" ht="21.05">
       <c r="A80" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B80" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="21.05">
+        <v>470</v>
+      </c>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="1:6" ht="21.05">
       <c r="A81" s="5" t="s">
         <v>53</v>
       </c>
@@ -2910,10 +3448,15 @@
         <v>79</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6" ht="21.05">
       <c r="A82" s="5" t="s">
         <v>53</v>
       </c>
@@ -2921,10 +3464,15 @@
         <v>80</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="1:6" ht="21.05">
       <c r="A83" s="5" t="s">
         <v>53</v>
       </c>
@@ -2932,10 +3480,15 @@
         <v>81</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:6" ht="21.05">
       <c r="A84" s="5" t="s">
         <v>53</v>
       </c>
@@ -2943,10 +3496,15 @@
         <v>82</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+    </row>
+    <row r="85" spans="1:6" ht="21.05">
       <c r="A85" s="5" t="s">
         <v>53</v>
       </c>
@@ -2954,10 +3512,15 @@
         <v>83</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+    </row>
+    <row r="86" spans="1:6" ht="21.05">
       <c r="A86" s="5" t="s">
         <v>53</v>
       </c>
@@ -2965,10 +3528,15 @@
         <v>84</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+    </row>
+    <row r="87" spans="1:6" ht="21.05">
       <c r="A87" s="5" t="s">
         <v>53</v>
       </c>
@@ -2976,10 +3544,15 @@
         <v>85</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+    </row>
+    <row r="88" spans="1:6" ht="21.05">
       <c r="A88" s="5" t="s">
         <v>53</v>
       </c>
@@ -2987,10 +3560,15 @@
         <v>86</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+    </row>
+    <row r="89" spans="1:6" ht="21.05">
       <c r="A89" s="5" t="s">
         <v>53</v>
       </c>
@@ -2998,10 +3576,15 @@
         <v>87</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+    </row>
+    <row r="90" spans="1:6" ht="21.05">
       <c r="A90" s="5" t="s">
         <v>53</v>
       </c>
@@ -3009,10 +3592,15 @@
         <v>88</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+    </row>
+    <row r="91" spans="1:6" ht="21.05">
       <c r="A91" s="5" t="s">
         <v>53</v>
       </c>
@@ -3020,10 +3608,15 @@
         <v>89</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+    </row>
+    <row r="92" spans="1:6" ht="21.05">
       <c r="A92" s="5" t="s">
         <v>53</v>
       </c>
@@ -3031,10 +3624,15 @@
         <v>90</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+    </row>
+    <row r="93" spans="1:6" ht="21.05">
       <c r="A93" s="5" t="s">
         <v>53</v>
       </c>
@@ -3042,10 +3640,15 @@
         <v>91</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+    </row>
+    <row r="94" spans="1:6" ht="21.05">
       <c r="A94" s="5" t="s">
         <v>53</v>
       </c>
@@ -3053,10 +3656,15 @@
         <v>92</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+    </row>
+    <row r="95" spans="1:6" ht="21.05">
       <c r="A95" s="5" t="s">
         <v>53</v>
       </c>
@@ -3064,10 +3672,15 @@
         <v>93</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+    </row>
+    <row r="96" spans="1:6" ht="21.05">
       <c r="A96" s="5" t="s">
         <v>53</v>
       </c>
@@ -3075,10 +3688,15 @@
         <v>94</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+    </row>
+    <row r="97" spans="1:6" ht="21.05">
       <c r="A97" s="5" t="s">
         <v>53</v>
       </c>
@@ -3086,10 +3704,15 @@
         <v>95</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+    </row>
+    <row r="98" spans="1:6" ht="21.05">
       <c r="A98" s="5" t="s">
         <v>53</v>
       </c>
@@ -3097,19 +3720,30 @@
         <v>96</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>464</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="4"/>
       <c r="C99" s="11"/>
-    </row>
-    <row r="100" spans="1:3" ht="21.05">
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+    </row>
+    <row r="100" spans="1:6" ht="21.05">
       <c r="A100" s="8"/>
       <c r="B100" s="7"/>
       <c r="C100" s="11"/>
-    </row>
-    <row r="101" spans="1:3" ht="21.05">
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+    </row>
+    <row r="101" spans="1:6" ht="21.05">
       <c r="A101" s="5" t="s">
         <v>97</v>
       </c>
@@ -3117,10 +3751,15 @@
         <v>98</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+    </row>
+    <row r="102" spans="1:6" ht="21.05">
       <c r="A102" s="5" t="s">
         <v>97</v>
       </c>
@@ -3128,10 +3767,15 @@
         <v>99</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+    </row>
+    <row r="103" spans="1:6" ht="21.05">
       <c r="A103" s="5" t="s">
         <v>97</v>
       </c>
@@ -3139,10 +3783,15 @@
         <v>100</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+    </row>
+    <row r="104" spans="1:6" ht="21.05">
       <c r="A104" s="5" t="s">
         <v>97</v>
       </c>
@@ -3150,10 +3799,15 @@
         <v>101</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D104" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+    </row>
+    <row r="105" spans="1:6" ht="21.05">
       <c r="A105" s="5" t="s">
         <v>97</v>
       </c>
@@ -3161,21 +3815,29 @@
         <v>102</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D105" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+    </row>
+    <row r="106" spans="1:6" ht="21.05">
       <c r="A106" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B106" s="16" t="s">
         <v>103</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="21.05">
+        <v>472</v>
+      </c>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+    </row>
+    <row r="107" spans="1:6" ht="21.05">
       <c r="A107" s="5" t="s">
         <v>97</v>
       </c>
@@ -3183,10 +3845,15 @@
         <v>104</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+    </row>
+    <row r="108" spans="1:6" ht="21.05">
       <c r="A108" s="5" t="s">
         <v>97</v>
       </c>
@@ -3194,10 +3861,15 @@
         <v>105</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D108" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+    </row>
+    <row r="109" spans="1:6" ht="21.05">
       <c r="A109" s="5" t="s">
         <v>97</v>
       </c>
@@ -3205,10 +3877,15 @@
         <v>106</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+    </row>
+    <row r="110" spans="1:6" ht="21.05">
       <c r="A110" s="5" t="s">
         <v>97</v>
       </c>
@@ -3216,10 +3893,15 @@
         <v>107</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+    </row>
+    <row r="111" spans="1:6" ht="21.05">
       <c r="A111" s="5" t="s">
         <v>97</v>
       </c>
@@ -3227,10 +3909,13 @@
         <v>108</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
+    </row>
+    <row r="112" spans="1:6" ht="21.05">
       <c r="A112" s="5" t="s">
         <v>97</v>
       </c>
@@ -3238,10 +3923,15 @@
         <v>109</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D112" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+    </row>
+    <row r="113" spans="1:7" ht="21.05">
       <c r="A113" s="5" t="s">
         <v>97</v>
       </c>
@@ -3249,10 +3939,15 @@
         <v>110</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D113" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+    </row>
+    <row r="114" spans="1:7" ht="21.05">
       <c r="A114" s="5" t="s">
         <v>97</v>
       </c>
@@ -3260,10 +3955,15 @@
         <v>111</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D114" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+    </row>
+    <row r="115" spans="1:7" ht="21.05">
       <c r="A115" s="5" t="s">
         <v>97</v>
       </c>
@@ -3271,10 +3971,15 @@
         <v>112</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D115" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+    </row>
+    <row r="116" spans="1:7" ht="21.05">
       <c r="A116" s="5" t="s">
         <v>97</v>
       </c>
@@ -3282,10 +3987,15 @@
         <v>113</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D116" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
+    </row>
+    <row r="117" spans="1:7" ht="21.05">
       <c r="A117" s="5" t="s">
         <v>97</v>
       </c>
@@ -3293,21 +4003,30 @@
         <v>114</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D117" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
+    </row>
+    <row r="118" spans="1:7" ht="21.05">
       <c r="A118" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B118" s="16" t="s">
         <v>115</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="21.05">
+        <v>472</v>
+      </c>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="21"/>
+    </row>
+    <row r="119" spans="1:7" ht="21.05">
       <c r="A119" s="5" t="s">
         <v>97</v>
       </c>
@@ -3315,21 +4034,29 @@
         <v>116</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D119" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21"/>
+    </row>
+    <row r="120" spans="1:7" ht="21.05">
       <c r="A120" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B120" s="16" t="s">
         <v>117</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="21.05">
+        <v>472</v>
+      </c>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
+    </row>
+    <row r="121" spans="1:7" ht="21.05">
       <c r="A121" s="5" t="s">
         <v>97</v>
       </c>
@@ -3337,10 +4064,15 @@
         <v>118</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D121" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="E121" s="21"/>
+      <c r="F121" s="21"/>
+    </row>
+    <row r="122" spans="1:7" ht="21.05">
       <c r="A122" s="5" t="s">
         <v>97</v>
       </c>
@@ -3348,10 +4080,15 @@
         <v>119</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D122" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="E122" s="21"/>
+      <c r="F122" s="21"/>
+    </row>
+    <row r="123" spans="1:7" ht="21.05">
       <c r="A123" s="5" t="s">
         <v>97</v>
       </c>
@@ -3359,10 +4096,15 @@
         <v>120</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+    </row>
+    <row r="124" spans="1:7" ht="21.05">
       <c r="A124" s="5" t="s">
         <v>97</v>
       </c>
@@ -3370,10 +4112,15 @@
         <v>121</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D124" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E124" s="21"/>
+      <c r="F124" s="21"/>
+    </row>
+    <row r="125" spans="1:7" ht="21.05">
       <c r="A125" s="5" t="s">
         <v>97</v>
       </c>
@@ -3381,1557 +4128,2103 @@
         <v>122</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D125" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21"/>
+    </row>
+    <row r="126" spans="1:7" ht="21.05">
       <c r="A126" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B126" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D126" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
+    </row>
+    <row r="127" spans="1:7" ht="21.05">
+      <c r="A127" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B127" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C126" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="21.05">
-      <c r="A127" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="B127" s="16" t="s">
-        <v>124</v>
-      </c>
       <c r="C127" s="20" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="21.05">
+        <v>472</v>
+      </c>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="21"/>
+    </row>
+    <row r="128" spans="1:7" ht="21.05">
       <c r="A128" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D128" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="E128" s="21"/>
+      <c r="F128" s="21"/>
+    </row>
+    <row r="129" spans="1:6" ht="21.05">
       <c r="A129" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D129" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E129" s="21"/>
+      <c r="F129" s="21"/>
+    </row>
+    <row r="130" spans="1:6" ht="21.05">
       <c r="A130" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D130" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E130" s="21"/>
+      <c r="F130" s="21"/>
+    </row>
+    <row r="131" spans="1:6" ht="21.05">
       <c r="A131" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B131" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D131" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E131" s="21"/>
+      <c r="F131" s="21"/>
+    </row>
+    <row r="132" spans="1:6" ht="21.05">
+      <c r="A132" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B132" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C131" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="21.05">
-      <c r="A132" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="B132" s="16" t="s">
-        <v>129</v>
-      </c>
       <c r="C132" s="20" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D132" s="21"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="21"/>
+    </row>
+    <row r="133" spans="1:6" ht="21.05">
       <c r="A133" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="21.05">
+        <v>472</v>
+      </c>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="21"/>
+    </row>
+    <row r="134" spans="1:6" ht="21.05">
       <c r="A134" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D134" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="E134" s="21"/>
+      <c r="F134" s="21"/>
+    </row>
+    <row r="135" spans="1:6" ht="21.05">
       <c r="A135" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="21.05">
+        <v>464</v>
+      </c>
+      <c r="D135" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="E135" s="21"/>
+      <c r="F135" s="21"/>
+    </row>
+    <row r="136" spans="1:6" ht="21.05">
       <c r="A136" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>464</v>
+      </c>
+      <c r="D136" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="E136" s="21"/>
+      <c r="F136" s="21"/>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="4"/>
       <c r="C137" s="11"/>
-    </row>
-    <row r="138" spans="1:3" ht="21.05">
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+    </row>
+    <row r="138" spans="1:6" ht="21.05">
       <c r="A138" s="4"/>
       <c r="B138" s="7"/>
       <c r="C138" s="11"/>
-    </row>
-    <row r="139" spans="1:3" ht="21.05">
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+    </row>
+    <row r="139" spans="1:6" ht="21.05">
       <c r="A139" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B139" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="13" t="s">
+      <c r="C139" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D139" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="E139" s="21"/>
+      <c r="F139" s="21"/>
+    </row>
+    <row r="140" spans="1:6" ht="21.05">
+      <c r="A140" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B140" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C139" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="21.05">
-      <c r="A140" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B140" s="13" t="s">
+      <c r="C140" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D140" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="E140" s="21"/>
+      <c r="F140" s="21"/>
+    </row>
+    <row r="141" spans="1:6" ht="21.05">
+      <c r="A141" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B141" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C140" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="21.05">
-      <c r="A141" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B141" s="13" t="s">
+      <c r="C141" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D141" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+    </row>
+    <row r="142" spans="1:6" ht="21.05">
+      <c r="A142" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B142" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C141" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="21.05">
-      <c r="A142" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B142" s="13" t="s">
+      <c r="C142" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D142" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="E142" s="21"/>
+      <c r="F142" s="21"/>
+    </row>
+    <row r="143" spans="1:6" ht="21.05">
+      <c r="A143" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B143" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C142" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="21.05">
-      <c r="A143" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B143" s="13" t="s">
+      <c r="C143" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D143" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="E143" s="21"/>
+      <c r="F143" s="21"/>
+    </row>
+    <row r="144" spans="1:6" ht="21.05">
+      <c r="A144" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B144" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C143" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="21.05">
-      <c r="A144" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B144" s="13" t="s">
+      <c r="C144" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D144" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="E144" s="21"/>
+      <c r="F144" s="21"/>
+    </row>
+    <row r="145" spans="1:6" ht="21.05">
+      <c r="A145" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B145" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C144" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="21.05">
-      <c r="A145" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B145" s="13" t="s">
+      <c r="C145" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D145" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="E145" s="21"/>
+      <c r="F145" s="21"/>
+    </row>
+    <row r="146" spans="1:6" ht="21.05">
+      <c r="A146" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B146" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C145" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="21.05">
-      <c r="A146" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B146" s="13" t="s">
+      <c r="C146" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D146" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21"/>
+    </row>
+    <row r="147" spans="1:6" ht="21.05">
+      <c r="A147" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B147" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C146" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="21.05">
-      <c r="A147" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B147" s="13" t="s">
+      <c r="C147" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D147" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21"/>
+    </row>
+    <row r="148" spans="1:6" ht="21.05">
+      <c r="A148" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B148" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C147" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="21.05">
-      <c r="A148" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B148" s="13" t="s">
+      <c r="C148" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D148" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="E148" s="21"/>
+      <c r="F148" s="21"/>
+    </row>
+    <row r="149" spans="1:6" ht="21.05">
+      <c r="A149" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B149" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C148" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="21.05">
-      <c r="A149" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B149" s="13" t="s">
+      <c r="C149" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D149" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="E149" s="21"/>
+      <c r="F149" s="21"/>
+    </row>
+    <row r="150" spans="1:6" ht="21.05">
+      <c r="A150" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B150" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C149" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="21.05">
-      <c r="A150" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B150" s="13" t="s">
+      <c r="C150" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D150" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="E150" s="21"/>
+      <c r="F150" s="21"/>
+    </row>
+    <row r="151" spans="1:6" ht="21.05">
+      <c r="A151" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B151" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C150" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="21.05">
-      <c r="A151" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B151" s="13" t="s">
+      <c r="C151" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D151" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="E151" s="21"/>
+      <c r="F151" s="21"/>
+    </row>
+    <row r="152" spans="1:6" ht="21.05">
+      <c r="A152" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B152" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C151" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="21.05">
-      <c r="A152" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B152" s="16" t="s">
+      <c r="C152" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="E152" s="21"/>
+      <c r="F152" s="21"/>
+    </row>
+    <row r="153" spans="1:6" ht="21.05">
+      <c r="A153" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B153" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C152" s="20" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="21.05">
-      <c r="A153" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B153" s="13" t="s">
+      <c r="C153" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D153" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="E153" s="21"/>
+      <c r="F153" s="21"/>
+    </row>
+    <row r="154" spans="1:6" ht="21.05">
+      <c r="A154" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B154" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C153" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="21.05">
-      <c r="A154" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B154" s="13" t="s">
+      <c r="C154" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D154" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="E154" s="21"/>
+      <c r="F154" s="21"/>
+    </row>
+    <row r="155" spans="1:6" ht="21.05">
+      <c r="A155" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B155" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C154" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="21.05">
-      <c r="A155" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B155" s="13" t="s">
+      <c r="C155" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D155" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="E155" s="21"/>
+      <c r="F155" s="21"/>
+    </row>
+    <row r="156" spans="1:6" ht="21.05">
+      <c r="A156" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B156" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C155" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="21.05">
-      <c r="A156" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B156" s="13" t="s">
+      <c r="C156" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D156" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="E156" s="21"/>
+      <c r="F156" s="21"/>
+    </row>
+    <row r="157" spans="1:6" ht="21.05">
+      <c r="A157" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B157" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C156" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="21.05">
-      <c r="A157" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B157" s="13" t="s">
+      <c r="C157" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D157" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="E157" s="21"/>
+      <c r="F157" s="21"/>
+    </row>
+    <row r="158" spans="1:6" ht="21.05">
+      <c r="A158" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B158" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C157" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="21.05">
-      <c r="A158" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B158" s="13" t="s">
+      <c r="C158" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D158" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="E158" s="21"/>
+      <c r="F158" s="21"/>
+    </row>
+    <row r="159" spans="1:6" ht="21.05">
+      <c r="A159" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B159" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C158" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="21.05">
-      <c r="A159" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B159" s="13" t="s">
+      <c r="C159" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D159" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="E159" s="21"/>
+      <c r="F159" s="21"/>
+    </row>
+    <row r="160" spans="1:6" ht="21.05">
+      <c r="A160" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B160" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C159" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="21.05">
-      <c r="A160" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B160" s="13" t="s">
+      <c r="C160" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D160" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="E160" s="21"/>
+      <c r="F160" s="21"/>
+    </row>
+    <row r="161" spans="1:6" ht="21.05">
+      <c r="A161" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B161" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C160" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="21.05">
-      <c r="A161" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B161" s="13" t="s">
+      <c r="C161" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D161" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21"/>
+    </row>
+    <row r="162" spans="1:6" ht="21.05">
+      <c r="A162" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B162" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C161" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="21.05">
-      <c r="A162" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B162" s="13" t="s">
+      <c r="C162" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D162" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="E162" s="21"/>
+      <c r="F162" s="21"/>
+    </row>
+    <row r="163" spans="1:6" ht="21.05">
+      <c r="A163" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B163" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C162" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="21.05">
-      <c r="A163" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B163" s="16" t="s">
+      <c r="C163" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="D163" s="21"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="21"/>
+    </row>
+    <row r="164" spans="1:6" ht="21.05">
+      <c r="A164" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B164" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C163" s="20" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="21.05">
-      <c r="A164" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B164" s="17" t="s">
+      <c r="C164" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D164" s="21"/>
+      <c r="E164" s="21"/>
+      <c r="F164" s="21"/>
+    </row>
+    <row r="165" spans="1:6" ht="21.05">
+      <c r="A165" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B165" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C164" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="21.05">
-      <c r="A165" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B165" s="17" t="s">
+      <c r="C165" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D165" s="21"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="21"/>
+    </row>
+    <row r="166" spans="1:6" ht="21.05">
+      <c r="A166" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B166" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C165" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="21.05">
-      <c r="A166" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B166" s="13" t="s">
+      <c r="C166" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D166" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="E166" s="21"/>
+      <c r="F166" s="21"/>
+    </row>
+    <row r="167" spans="1:6" ht="21.05">
+      <c r="A167" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B167" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C166" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="21.05">
-      <c r="A167" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B167" s="13" t="s">
+      <c r="C167" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D167" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="E167" s="21"/>
+      <c r="F167" s="21"/>
+    </row>
+    <row r="168" spans="1:6" ht="21.05">
+      <c r="A168" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B168" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C167" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="21.05">
-      <c r="A168" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B168" s="16" t="s">
+      <c r="C168" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="D168" s="21"/>
+      <c r="E168" s="21"/>
+      <c r="F168" s="21"/>
+    </row>
+    <row r="169" spans="1:6" ht="21.05">
+      <c r="A169" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B169" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C168" s="20" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="21.05">
-      <c r="A169" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B169" s="13" t="s">
+      <c r="C169" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D169" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="E169" s="21"/>
+      <c r="F169" s="21"/>
+    </row>
+    <row r="170" spans="1:6" ht="21.05">
+      <c r="A170" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B170" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C169" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="21.05">
-      <c r="A170" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B170" s="16" t="s">
+      <c r="C170" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="D170" s="21"/>
+      <c r="E170" s="21"/>
+      <c r="F170" s="21"/>
+    </row>
+    <row r="171" spans="1:6" ht="21.05">
+      <c r="A171" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B171" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C170" s="20" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="21.05">
-      <c r="A171" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B171" s="13" t="s">
+      <c r="C171" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D171" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="E171" s="21"/>
+      <c r="F171" s="21"/>
+    </row>
+    <row r="172" spans="1:6" ht="21.05">
+      <c r="A172" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B172" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C171" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="21.05">
-      <c r="A172" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B172" s="13" t="s">
+      <c r="C172" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D172" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="E172" s="21"/>
+      <c r="F172" s="21"/>
+    </row>
+    <row r="173" spans="1:6" ht="21.05">
+      <c r="A173" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B173" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C172" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="21.05">
-      <c r="A173" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B173" s="13" t="s">
+      <c r="C173" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D173" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="E173" s="21"/>
+      <c r="F173" s="21"/>
+    </row>
+    <row r="174" spans="1:6" ht="21.05">
+      <c r="A174" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B174" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C173" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="21.05">
-      <c r="A174" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B174" s="16" t="s">
-        <v>170</v>
-      </c>
       <c r="C174" s="20" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>472</v>
+      </c>
+      <c r="D174" s="21"/>
+      <c r="E174" s="21"/>
+      <c r="F174" s="21"/>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" s="4"/>
       <c r="C175" s="11"/>
-    </row>
-    <row r="176" spans="1:3" ht="21.05">
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+    </row>
+    <row r="176" spans="1:6" ht="21.05">
       <c r="A176" s="4"/>
       <c r="B176" s="7"/>
       <c r="C176" s="11"/>
-    </row>
-    <row r="177" spans="1:3" ht="21.05">
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
+    </row>
+    <row r="177" spans="1:6" ht="21.05">
       <c r="A177" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B177" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="13" t="s">
+      <c r="C177" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D177" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="E177" s="21"/>
+      <c r="F177" s="21"/>
+    </row>
+    <row r="178" spans="1:6" ht="21.05">
+      <c r="A178" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B178" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C177" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="21.05">
-      <c r="A178" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B178" s="13" t="s">
+      <c r="C178" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D178" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="E178" s="21"/>
+      <c r="F178" s="21"/>
+    </row>
+    <row r="179" spans="1:6" ht="21.05">
+      <c r="A179" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B179" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C178" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="21.05">
-      <c r="A179" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B179" s="13" t="s">
+      <c r="C179" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D179" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="E179" s="21"/>
+      <c r="F179" s="21"/>
+    </row>
+    <row r="180" spans="1:6" ht="21.05">
+      <c r="A180" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B180" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C179" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="21.05">
-      <c r="A180" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B180" s="13" t="s">
+      <c r="C180" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D180" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="E180" s="21"/>
+      <c r="F180" s="21"/>
+    </row>
+    <row r="181" spans="1:6" ht="21.05">
+      <c r="A181" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B181" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C180" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="21.05">
-      <c r="A181" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B181" s="13" t="s">
+      <c r="C181" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D181" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="E181" s="21"/>
+      <c r="F181" s="21"/>
+    </row>
+    <row r="182" spans="1:6" ht="21.05">
+      <c r="A182" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B182" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C181" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="21.05">
-      <c r="A182" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B182" s="13" t="s">
+      <c r="C182" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D182" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="E182" s="21"/>
+      <c r="F182" s="21"/>
+    </row>
+    <row r="183" spans="1:6" ht="21.05">
+      <c r="A183" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B183" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="C182" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="21.05">
-      <c r="A183" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B183" s="13" t="s">
+      <c r="C183" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D183" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="E183" s="21"/>
+      <c r="F183" s="21"/>
+    </row>
+    <row r="184" spans="1:6" ht="21.05">
+      <c r="A184" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B184" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C183" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="21.05">
-      <c r="A184" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B184" s="13" t="s">
+      <c r="C184" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D184" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="E184" s="21"/>
+      <c r="F184" s="21"/>
+    </row>
+    <row r="185" spans="1:6" ht="21.05">
+      <c r="A185" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B185" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C184" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="21.05">
-      <c r="A185" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B185" s="13" t="s">
+      <c r="C185" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D185" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="E185" s="21"/>
+      <c r="F185" s="21"/>
+    </row>
+    <row r="186" spans="1:6" ht="21.05">
+      <c r="A186" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B186" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C185" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="21.05">
-      <c r="A186" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B186" s="13" t="s">
+      <c r="C186" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D186" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="E186" s="21"/>
+      <c r="F186" s="21"/>
+    </row>
+    <row r="187" spans="1:6" ht="21.05">
+      <c r="A187" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B187" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C186" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="21.05">
-      <c r="A187" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B187" s="13" t="s">
+      <c r="C187" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D187" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="E187" s="21"/>
+      <c r="F187" s="21"/>
+    </row>
+    <row r="188" spans="1:6" ht="21.05">
+      <c r="A188" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B188" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C187" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="21.05">
-      <c r="A188" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B188" s="13" t="s">
+      <c r="C188" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D188" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="E188" s="21"/>
+      <c r="F188" s="21"/>
+    </row>
+    <row r="189" spans="1:6" ht="21.05">
+      <c r="A189" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B189" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="C188" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="21.05">
-      <c r="A189" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B189" s="16" t="s">
+      <c r="C189" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="D189" s="21"/>
+      <c r="E189" s="21"/>
+      <c r="F189" s="21"/>
+    </row>
+    <row r="190" spans="1:6" ht="21.05">
+      <c r="A190" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B190" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C189" s="20" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="21.05">
-      <c r="A190" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B190" s="13" t="s">
+      <c r="C190" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D190" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="E190" s="21"/>
+      <c r="F190" s="21"/>
+    </row>
+    <row r="191" spans="1:6" ht="21.05">
+      <c r="A191" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B191" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C190" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="21.05">
-      <c r="A191" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B191" s="13" t="s">
+      <c r="C191" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D191" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="E191" s="21"/>
+      <c r="F191" s="21"/>
+    </row>
+    <row r="192" spans="1:6" ht="21.05">
+      <c r="A192" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B192" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C191" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="21.05">
-      <c r="A192" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B192" s="13" t="s">
+      <c r="C192" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D192" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="E192" s="21"/>
+      <c r="F192" s="21"/>
+    </row>
+    <row r="193" spans="1:6" ht="21.05">
+      <c r="A193" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B193" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C192" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="21.05">
-      <c r="A193" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B193" s="6" t="s">
+      <c r="C193" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D193" s="21"/>
+      <c r="E193" s="21"/>
+      <c r="F193" s="21"/>
+    </row>
+    <row r="194" spans="1:6" ht="21.05">
+      <c r="A194" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B194" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C193" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="21.05">
-      <c r="A194" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B194" s="6" t="s">
+      <c r="C194" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D194" s="21"/>
+      <c r="E194" s="21"/>
+      <c r="F194" s="21"/>
+    </row>
+    <row r="195" spans="1:6" ht="21.05">
+      <c r="A195" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B195" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C194" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="21.05">
-      <c r="A195" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B195" s="6" t="s">
+      <c r="C195" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D195" s="21"/>
+      <c r="E195" s="21"/>
+      <c r="F195" s="21"/>
+    </row>
+    <row r="196" spans="1:6" ht="21.05">
+      <c r="A196" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B196" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C195" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="21.05">
-      <c r="A196" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B196" s="6" t="s">
+      <c r="C196" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D196" s="21"/>
+      <c r="E196" s="21"/>
+      <c r="F196" s="21"/>
+    </row>
+    <row r="197" spans="1:6" ht="21.05">
+      <c r="A197" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B197" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C196" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="21.05">
-      <c r="A197" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B197" s="6" t="s">
+      <c r="C197" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D197" s="21"/>
+      <c r="E197" s="21"/>
+      <c r="F197" s="21"/>
+    </row>
+    <row r="198" spans="1:6" ht="21.05">
+      <c r="A198" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B198" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C197" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="21.05">
-      <c r="A198" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B198" s="6" t="s">
+      <c r="C198" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D198" s="21"/>
+      <c r="E198" s="21"/>
+      <c r="F198" s="21"/>
+    </row>
+    <row r="199" spans="1:6" ht="21.05">
+      <c r="A199" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B199" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C198" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="21.05">
-      <c r="A199" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B199" s="6" t="s">
+      <c r="C199" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D199" s="21"/>
+      <c r="E199" s="21"/>
+      <c r="F199" s="21"/>
+    </row>
+    <row r="200" spans="1:6" ht="21.05">
+      <c r="A200" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B200" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C199" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="21.05">
-      <c r="A200" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B200" s="6" t="s">
+      <c r="C200" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D200" s="21"/>
+      <c r="E200" s="21"/>
+      <c r="F200" s="21"/>
+    </row>
+    <row r="201" spans="1:6" ht="21.05">
+      <c r="A201" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B201" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C200" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="21.05">
-      <c r="A201" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B201" s="6" t="s">
+      <c r="C201" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D201" s="21"/>
+      <c r="E201" s="21"/>
+      <c r="F201" s="21"/>
+    </row>
+    <row r="202" spans="1:6" ht="21.05">
+      <c r="A202" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B202" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C201" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="21.05">
-      <c r="A202" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B202" s="6" t="s">
+      <c r="C202" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D202" s="21"/>
+      <c r="E202" s="21"/>
+      <c r="F202" s="21"/>
+    </row>
+    <row r="203" spans="1:6" ht="21.05">
+      <c r="A203" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B203" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C202" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="21.05">
-      <c r="A203" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B203" s="6" t="s">
+      <c r="C203" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D203" s="21"/>
+      <c r="E203" s="21"/>
+      <c r="F203" s="21"/>
+    </row>
+    <row r="204" spans="1:6" ht="21.05">
+      <c r="A204" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B204" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C203" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="21.05">
-      <c r="A204" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B204" s="6" t="s">
+      <c r="C204" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D204" s="21"/>
+      <c r="E204" s="21"/>
+      <c r="F204" s="21"/>
+    </row>
+    <row r="205" spans="1:6" ht="21.05">
+      <c r="A205" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B205" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C204" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="21.05">
-      <c r="A205" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B205" s="6" t="s">
+      <c r="C205" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D205" s="21"/>
+      <c r="E205" s="21"/>
+      <c r="F205" s="21"/>
+    </row>
+    <row r="206" spans="1:6" ht="21.05">
+      <c r="A206" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B206" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C205" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="21.05">
-      <c r="A206" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B206" s="6" t="s">
+      <c r="C206" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D206" s="21"/>
+      <c r="E206" s="21"/>
+      <c r="F206" s="21"/>
+    </row>
+    <row r="207" spans="1:6" ht="21.05">
+      <c r="A207" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B207" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C206" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="21.05">
-      <c r="A207" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B207" s="6" t="s">
+      <c r="C207" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D207" s="21"/>
+      <c r="E207" s="21"/>
+      <c r="F207" s="21"/>
+    </row>
+    <row r="208" spans="1:6" ht="21.05">
+      <c r="A208" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B208" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C207" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="21.05">
-      <c r="A208" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B208" s="6" t="s">
+      <c r="C208" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D208" s="21"/>
+      <c r="E208" s="21"/>
+      <c r="F208" s="21"/>
+    </row>
+    <row r="209" spans="1:6" ht="21.05">
+      <c r="A209" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B209" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C208" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="21.05">
-      <c r="A209" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B209" s="6" t="s">
+      <c r="C209" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D209" s="21"/>
+      <c r="E209" s="21"/>
+      <c r="F209" s="21"/>
+    </row>
+    <row r="210" spans="1:6" ht="21.05">
+      <c r="A210" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B210" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C209" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="21.05">
-      <c r="A210" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B210" s="6" t="s">
+      <c r="C210" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D210" s="21"/>
+      <c r="E210" s="21"/>
+      <c r="F210" s="21"/>
+    </row>
+    <row r="211" spans="1:6" ht="21.05">
+      <c r="A211" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B211" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C210" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="21.05">
-      <c r="A211" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>206</v>
-      </c>
       <c r="C211" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" ht="21.05">
+      <c r="D211" s="21"/>
+      <c r="E211" s="21"/>
+      <c r="F211" s="21"/>
+    </row>
+    <row r="212" spans="1:6" ht="21.05">
       <c r="A212" s="8"/>
       <c r="B212" s="7"/>
       <c r="C212" s="11"/>
-    </row>
-    <row r="213" spans="1:3" ht="21.05">
+      <c r="D212" s="12"/>
+      <c r="E212" s="12"/>
+      <c r="F212" s="12"/>
+    </row>
+    <row r="213" spans="1:6" ht="21.05">
       <c r="A213" s="8"/>
       <c r="B213" s="7"/>
       <c r="C213" s="11"/>
-    </row>
-    <row r="214" spans="1:3" ht="21.05">
+      <c r="D213" s="12"/>
+      <c r="E213" s="12"/>
+      <c r="F213" s="12"/>
+    </row>
+    <row r="214" spans="1:6" ht="21.05">
       <c r="A214" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B214" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="6" t="s">
+      <c r="C214" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D214" s="12"/>
+      <c r="E214" s="12"/>
+      <c r="F214" s="12"/>
+    </row>
+    <row r="215" spans="1:6" ht="21.05">
+      <c r="A215" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B215" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C214" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="21.05">
-      <c r="A215" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B215" s="6" t="s">
+      <c r="C215" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D215" s="12"/>
+      <c r="E215" s="12"/>
+      <c r="F215" s="12"/>
+    </row>
+    <row r="216" spans="1:6" ht="21.05">
+      <c r="A216" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B216" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C215" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="21.05">
-      <c r="A216" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B216" s="6" t="s">
+      <c r="C216" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D216" s="12"/>
+      <c r="E216" s="12"/>
+      <c r="F216" s="12"/>
+    </row>
+    <row r="217" spans="1:6" ht="21.05">
+      <c r="A217" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B217" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C216" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="21.05">
-      <c r="A217" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B217" s="6" t="s">
+      <c r="C217" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D217" s="12"/>
+      <c r="E217" s="12"/>
+      <c r="F217" s="12"/>
+    </row>
+    <row r="218" spans="1:6" ht="21.05">
+      <c r="A218" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B218" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C217" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="21.05">
-      <c r="A218" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B218" s="6" t="s">
+      <c r="C218" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D218" s="12"/>
+      <c r="E218" s="12"/>
+      <c r="F218" s="12"/>
+    </row>
+    <row r="219" spans="1:6" ht="21.05">
+      <c r="A219" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B219" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C218" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="21.05">
-      <c r="A219" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B219" s="6" t="s">
+      <c r="C219" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D219" s="12"/>
+      <c r="E219" s="12"/>
+      <c r="F219" s="12"/>
+    </row>
+    <row r="220" spans="1:6" ht="21.05">
+      <c r="A220" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B220" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C219" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="21.05">
-      <c r="A220" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B220" s="9" t="s">
+      <c r="C220" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D220" s="12"/>
+      <c r="E220" s="12"/>
+      <c r="F220" s="12"/>
+    </row>
+    <row r="221" spans="1:6" ht="21.05">
+      <c r="A221" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B221" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C220" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="21.05">
-      <c r="A221" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B221" s="6" t="s">
+      <c r="C221" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D221" s="12"/>
+      <c r="E221" s="12"/>
+      <c r="F221" s="12"/>
+    </row>
+    <row r="222" spans="1:6" ht="21.05">
+      <c r="A222" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B222" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C221" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="21.05">
-      <c r="A222" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B222" s="6" t="s">
+      <c r="C222" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D222" s="12"/>
+      <c r="E222" s="12"/>
+      <c r="F222" s="12"/>
+    </row>
+    <row r="223" spans="1:6" ht="21.05">
+      <c r="A223" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B223" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C222" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="21.05">
-      <c r="A223" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B223" s="6" t="s">
+      <c r="C223" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D223" s="12"/>
+      <c r="E223" s="12"/>
+      <c r="F223" s="12"/>
+    </row>
+    <row r="224" spans="1:6" ht="21.05">
+      <c r="A224" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B224" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C223" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="21.05">
-      <c r="A224" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B224" s="6" t="s">
+      <c r="C224" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D224" s="12"/>
+      <c r="E224" s="12"/>
+      <c r="F224" s="12"/>
+    </row>
+    <row r="225" spans="1:6" ht="21.05">
+      <c r="A225" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B225" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C224" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="21.05">
-      <c r="A225" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B225" s="6" t="s">
+      <c r="C225" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D225" s="12"/>
+      <c r="E225" s="12"/>
+      <c r="F225" s="12"/>
+    </row>
+    <row r="226" spans="1:6" ht="21.05">
+      <c r="A226" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B226" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C225" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="21.05">
-      <c r="A226" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B226" s="6" t="s">
+      <c r="C226" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D226" s="12"/>
+      <c r="E226" s="12"/>
+      <c r="F226" s="12"/>
+    </row>
+    <row r="227" spans="1:6" ht="21.05">
+      <c r="A227" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B227" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C226" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="21.05">
-      <c r="A227" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B227" s="6" t="s">
+      <c r="C227" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D227" s="12"/>
+      <c r="E227" s="12"/>
+      <c r="F227" s="12"/>
+    </row>
+    <row r="228" spans="1:6" ht="21.05">
+      <c r="A228" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B228" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C227" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="21.05">
-      <c r="A228" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B228" s="6" t="s">
+      <c r="C228" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D228" s="12"/>
+      <c r="E228" s="12"/>
+      <c r="F228" s="12"/>
+    </row>
+    <row r="229" spans="1:6" ht="21.05">
+      <c r="A229" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B229" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C228" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="21.05">
-      <c r="A229" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B229" s="6" t="s">
+      <c r="C229" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D229" s="12"/>
+      <c r="E229" s="12"/>
+      <c r="F229" s="12"/>
+    </row>
+    <row r="230" spans="1:6" ht="21.05">
+      <c r="A230" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B230" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C229" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="21.05">
-      <c r="A230" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B230" s="6" t="s">
+      <c r="C230" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D230" s="12"/>
+      <c r="E230" s="12"/>
+      <c r="F230" s="12"/>
+    </row>
+    <row r="231" spans="1:6" ht="21.05">
+      <c r="A231" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B231" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C230" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="21.05">
-      <c r="A231" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B231" s="6" t="s">
+      <c r="C231" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D231" s="12"/>
+      <c r="E231" s="12"/>
+      <c r="F231" s="12"/>
+    </row>
+    <row r="232" spans="1:6" ht="21.05">
+      <c r="A232" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B232" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C231" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="21.05">
-      <c r="A232" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B232" s="6" t="s">
+      <c r="C232" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D232" s="12"/>
+      <c r="E232" s="12"/>
+      <c r="F232" s="12"/>
+    </row>
+    <row r="233" spans="1:6" ht="21.05">
+      <c r="A233" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B233" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C232" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="21.05">
-      <c r="A233" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B233" s="6" t="s">
+      <c r="C233" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D233" s="12"/>
+      <c r="E233" s="12"/>
+      <c r="F233" s="12"/>
+    </row>
+    <row r="234" spans="1:6" ht="21.05">
+      <c r="A234" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B234" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C233" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="21.05">
-      <c r="A234" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B234" s="6" t="s">
+      <c r="C234" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D234" s="12"/>
+      <c r="E234" s="12"/>
+      <c r="F234" s="12"/>
+    </row>
+    <row r="235" spans="1:6" ht="21.05">
+      <c r="A235" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B235" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C234" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="21.05">
-      <c r="A235" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="C235" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" ht="21.05">
+      <c r="D235" s="12"/>
+      <c r="E235" s="12"/>
+      <c r="F235" s="12"/>
+    </row>
+    <row r="236" spans="1:6" ht="21.05">
       <c r="A236" s="4"/>
       <c r="B236" s="7"/>
       <c r="C236" s="11"/>
-    </row>
-    <row r="237" spans="1:3" ht="21.05">
+      <c r="D236" s="12"/>
+      <c r="E236" s="12"/>
+      <c r="F236" s="12"/>
+    </row>
+    <row r="237" spans="1:6" ht="21.05">
       <c r="A237" s="4"/>
       <c r="B237" s="7"/>
       <c r="C237" s="11"/>
-    </row>
-    <row r="238" spans="1:3" ht="21.05">
+      <c r="D237" s="12"/>
+      <c r="E237" s="12"/>
+      <c r="F237" s="12"/>
+    </row>
+    <row r="238" spans="1:6" ht="21.05">
       <c r="A238" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B238" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="6" t="s">
+      <c r="C238" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D238" s="12"/>
+      <c r="E238" s="12"/>
+      <c r="F238" s="12"/>
+    </row>
+    <row r="239" spans="1:6" ht="21.05">
+      <c r="A239" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B239" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C238" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="21.05">
-      <c r="A239" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B239" s="6" t="s">
+      <c r="C239" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D239" s="12"/>
+      <c r="E239" s="12"/>
+      <c r="F239" s="12"/>
+    </row>
+    <row r="240" spans="1:6" ht="21.05">
+      <c r="A240" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B240" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C239" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="21.05">
-      <c r="A240" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B240" s="6" t="s">
+      <c r="C240" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D240" s="12"/>
+      <c r="E240" s="12"/>
+      <c r="F240" s="12"/>
+    </row>
+    <row r="241" spans="1:6" ht="21.05">
+      <c r="A241" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B241" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C240" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="21.05">
-      <c r="A241" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B241" s="6" t="s">
+      <c r="C241" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D241" s="12"/>
+      <c r="E241" s="12"/>
+      <c r="F241" s="12"/>
+    </row>
+    <row r="242" spans="1:6" ht="21.05">
+      <c r="A242" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B242" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C241" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="21.05">
-      <c r="A242" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B242" s="6" t="s">
+      <c r="C242" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D242" s="12"/>
+      <c r="E242" s="12"/>
+      <c r="F242" s="12"/>
+    </row>
+    <row r="243" spans="1:6" ht="21.05">
+      <c r="A243" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B243" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C242" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="21.05">
-      <c r="A243" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B243" s="6" t="s">
+      <c r="C243" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D243" s="12"/>
+      <c r="E243" s="12"/>
+      <c r="F243" s="12"/>
+    </row>
+    <row r="244" spans="1:6" ht="21.05">
+      <c r="A244" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B244" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C243" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="21.05">
-      <c r="A244" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B244" s="6" t="s">
+      <c r="C244" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D244" s="12"/>
+      <c r="E244" s="12"/>
+      <c r="F244" s="12"/>
+    </row>
+    <row r="245" spans="1:6" ht="21.05">
+      <c r="A245" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B245" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C244" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="21.05">
-      <c r="A245" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B245" s="6" t="s">
+      <c r="C245" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D245" s="12"/>
+      <c r="E245" s="12"/>
+      <c r="F245" s="12"/>
+    </row>
+    <row r="246" spans="1:6" ht="21.05">
+      <c r="A246" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B246" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C245" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="21.05">
-      <c r="A246" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B246" s="6" t="s">
+      <c r="C246" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D246" s="12"/>
+      <c r="E246" s="12"/>
+      <c r="F246" s="12"/>
+    </row>
+    <row r="247" spans="1:6" ht="21.05">
+      <c r="A247" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B247" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C246" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="21.05">
-      <c r="A247" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B247" s="6" t="s">
+      <c r="C247" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D247" s="12"/>
+      <c r="E247" s="12"/>
+      <c r="F247" s="12"/>
+    </row>
+    <row r="248" spans="1:6" ht="21.05">
+      <c r="A248" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B248" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C247" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="21.05">
-      <c r="A248" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B248" s="6" t="s">
+      <c r="C248" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D248" s="12"/>
+      <c r="E248" s="12"/>
+      <c r="F248" s="12"/>
+    </row>
+    <row r="249" spans="1:6" ht="21.05">
+      <c r="A249" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B249" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C248" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="21.05">
-      <c r="A249" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B249" s="6" t="s">
+      <c r="C249" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D249" s="12"/>
+      <c r="E249" s="12"/>
+      <c r="F249" s="12"/>
+    </row>
+    <row r="250" spans="1:6" ht="21.05">
+      <c r="A250" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B250" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C249" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="21.05">
-      <c r="A250" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B250" s="6" t="s">
+      <c r="C250" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D250" s="12"/>
+      <c r="E250" s="12"/>
+      <c r="F250" s="12"/>
+    </row>
+    <row r="251" spans="1:6" ht="21.05">
+      <c r="A251" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B251" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C250" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="21.05">
-      <c r="A251" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B251" s="6" t="s">
+      <c r="C251" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D251" s="12"/>
+      <c r="E251" s="12"/>
+      <c r="F251" s="12"/>
+    </row>
+    <row r="252" spans="1:6" ht="21.05">
+      <c r="A252" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B252" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C251" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="21.05">
-      <c r="A252" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B252" s="6" t="s">
+      <c r="C252" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D252" s="12"/>
+      <c r="E252" s="12"/>
+      <c r="F252" s="12"/>
+    </row>
+    <row r="253" spans="1:6" ht="21.05">
+      <c r="A253" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B253" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C252" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="21.05">
-      <c r="A253" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B253" s="6" t="s">
+      <c r="C253" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D253" s="12"/>
+      <c r="E253" s="12"/>
+      <c r="F253" s="12"/>
+    </row>
+    <row r="254" spans="1:6" ht="21.05">
+      <c r="A254" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B254" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C253" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="21.05">
-      <c r="A254" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B254" s="6" t="s">
+      <c r="C254" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D254" s="12"/>
+      <c r="E254" s="12"/>
+      <c r="F254" s="12"/>
+    </row>
+    <row r="255" spans="1:6" ht="21.05">
+      <c r="A255" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B255" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C254" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" ht="21.05">
-      <c r="A255" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B255" s="6" t="s">
+      <c r="C255" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D255" s="12"/>
+      <c r="E255" s="12"/>
+      <c r="F255" s="12"/>
+    </row>
+    <row r="256" spans="1:6" ht="21.05">
+      <c r="A256" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B256" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C255" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="21.05">
-      <c r="A256" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B256" s="6" t="s">
+      <c r="C256" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D256" s="12"/>
+      <c r="E256" s="12"/>
+      <c r="F256" s="12"/>
+    </row>
+    <row r="257" spans="1:6" ht="21.05">
+      <c r="A257" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B257" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C256" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" ht="21.05">
-      <c r="A257" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B257" s="6" t="s">
+      <c r="C257" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D257" s="12"/>
+      <c r="E257" s="12"/>
+      <c r="F257" s="12"/>
+    </row>
+    <row r="258" spans="1:6" ht="21.05">
+      <c r="A258" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B258" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C257" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="21.05">
-      <c r="A258" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B258" s="6" t="s">
+      <c r="C258" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D258" s="12"/>
+      <c r="E258" s="12"/>
+      <c r="F258" s="12"/>
+    </row>
+    <row r="259" spans="1:6" ht="21.05">
+      <c r="A259" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B259" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C258" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" ht="21.05">
-      <c r="A259" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B259" s="6" t="s">
+      <c r="C259" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D259" s="12"/>
+      <c r="E259" s="12"/>
+      <c r="F259" s="12"/>
+    </row>
+    <row r="260" spans="1:6" ht="21.05">
+      <c r="A260" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B260" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C259" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="21.05">
-      <c r="A260" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B260" s="6" t="s">
+      <c r="C260" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D260" s="12"/>
+      <c r="E260" s="12"/>
+      <c r="F260" s="12"/>
+    </row>
+    <row r="261" spans="1:6" ht="21.05">
+      <c r="A261" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B261" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C260" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="21.05">
-      <c r="A261" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B261" s="6" t="s">
+      <c r="C261" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D261" s="12"/>
+      <c r="E261" s="12"/>
+      <c r="F261" s="12"/>
+    </row>
+    <row r="262" spans="1:6" ht="21.05">
+      <c r="A262" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B262" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C261" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" ht="21.05">
-      <c r="A262" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B262" s="6" t="s">
+      <c r="C262" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D262" s="12"/>
+      <c r="E262" s="12"/>
+      <c r="F262" s="12"/>
+    </row>
+    <row r="263" spans="1:6" ht="21.05">
+      <c r="A263" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B263" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C262" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" ht="21.05">
-      <c r="A263" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B263" s="6" t="s">
+      <c r="C263" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D263" s="12"/>
+      <c r="E263" s="12"/>
+      <c r="F263" s="12"/>
+    </row>
+    <row r="264" spans="1:6" ht="21.05">
+      <c r="A264" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B264" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C263" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" ht="21.05">
-      <c r="A264" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B264" s="6" t="s">
+      <c r="C264" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D264" s="12"/>
+      <c r="E264" s="12"/>
+      <c r="F264" s="12"/>
+    </row>
+    <row r="265" spans="1:6" ht="21.05">
+      <c r="A265" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B265" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C264" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" ht="21.05">
-      <c r="A265" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B265" s="6" t="s">
+      <c r="C265" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D265" s="12"/>
+      <c r="E265" s="12"/>
+      <c r="F265" s="12"/>
+    </row>
+    <row r="266" spans="1:6" ht="21.05">
+      <c r="A266" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B266" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C265" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" ht="21.05">
-      <c r="A266" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B266" s="6" t="s">
+      <c r="C266" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D266" s="12"/>
+      <c r="E266" s="12"/>
+      <c r="F266" s="12"/>
+    </row>
+    <row r="267" spans="1:6" ht="21.05">
+      <c r="A267" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B267" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C266" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="21.05">
-      <c r="A267" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B267" s="6" t="s">
+      <c r="C267" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D267" s="12"/>
+      <c r="E267" s="12"/>
+      <c r="F267" s="12"/>
+    </row>
+    <row r="268" spans="1:6" ht="21.05">
+      <c r="A268" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B268" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C267" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="21.05">
-      <c r="A268" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B268" s="6" t="s">
+      <c r="C268" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D268" s="12"/>
+      <c r="E268" s="12"/>
+      <c r="F268" s="12"/>
+    </row>
+    <row r="269" spans="1:6" ht="21.05">
+      <c r="A269" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B269" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C268" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" ht="21.05">
-      <c r="A269" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B269" s="6" t="s">
+      <c r="C269" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D269" s="12"/>
+      <c r="E269" s="12"/>
+      <c r="F269" s="12"/>
+    </row>
+    <row r="270" spans="1:6" ht="21.05">
+      <c r="A270" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B270" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C269" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="21.05">
-      <c r="A270" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B270" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="C270" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" ht="21.05">
+      <c r="D270" s="12"/>
+      <c r="E270" s="12"/>
+      <c r="F270" s="12"/>
+    </row>
+    <row r="271" spans="1:6" ht="21.05">
       <c r="A271" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>87</v>
@@ -4939,857 +6232,1097 @@
       <c r="C271" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" ht="21.05">
+      <c r="D271" s="12"/>
+      <c r="E271" s="12"/>
+      <c r="F271" s="12"/>
+    </row>
+    <row r="272" spans="1:6" ht="21.05">
       <c r="A272" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C272" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" ht="21.05">
+      <c r="D272" s="12"/>
+      <c r="E272" s="12"/>
+      <c r="F272" s="12"/>
+    </row>
+    <row r="273" spans="1:6" ht="21.05">
       <c r="A273" s="4"/>
       <c r="B273" s="7"/>
       <c r="C273" s="11"/>
-    </row>
-    <row r="274" spans="1:3" ht="21.05">
+      <c r="D273" s="12"/>
+      <c r="E273" s="12"/>
+      <c r="F273" s="12"/>
+    </row>
+    <row r="274" spans="1:6" ht="21.05">
       <c r="A274" s="4"/>
       <c r="B274" s="7"/>
       <c r="C274" s="11"/>
-    </row>
-    <row r="275" spans="1:3" ht="21.05">
+      <c r="D274" s="12"/>
+      <c r="E274" s="12"/>
+      <c r="F274" s="12"/>
+    </row>
+    <row r="275" spans="1:6" ht="21.05">
       <c r="A275" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="6" t="s">
+      <c r="C275" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D275" s="12"/>
+      <c r="E275" s="12"/>
+      <c r="F275" s="12"/>
+    </row>
+    <row r="276" spans="1:6" ht="21.05">
+      <c r="A276" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B276" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C275" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="21.05">
-      <c r="A276" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B276" s="6" t="s">
+      <c r="C276" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D276" s="12"/>
+      <c r="E276" s="12"/>
+      <c r="F276" s="12"/>
+    </row>
+    <row r="277" spans="1:6" ht="21.05">
+      <c r="A277" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B277" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C276" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="21.05">
-      <c r="A277" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B277" s="6" t="s">
+      <c r="C277" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D277" s="12"/>
+      <c r="E277" s="12"/>
+      <c r="F277" s="12"/>
+    </row>
+    <row r="278" spans="1:6" ht="21.05">
+      <c r="A278" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B278" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C277" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="21.05">
-      <c r="A278" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B278" s="6" t="s">
+      <c r="C278" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D278" s="12"/>
+      <c r="E278" s="12"/>
+      <c r="F278" s="12"/>
+    </row>
+    <row r="279" spans="1:6" ht="21.05">
+      <c r="A279" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B279" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C278" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" ht="21.05">
-      <c r="A279" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B279" s="6" t="s">
+      <c r="C279" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D279" s="12"/>
+      <c r="E279" s="12"/>
+      <c r="F279" s="12"/>
+    </row>
+    <row r="280" spans="1:6" ht="21.05">
+      <c r="A280" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B280" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C279" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="21.05">
-      <c r="A280" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B280" s="6" t="s">
+      <c r="C280" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D280" s="12"/>
+      <c r="E280" s="12"/>
+      <c r="F280" s="12"/>
+    </row>
+    <row r="281" spans="1:6" ht="21.05">
+      <c r="A281" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B281" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C280" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="21.05">
-      <c r="A281" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B281" s="6" t="s">
+      <c r="C281" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D281" s="12"/>
+      <c r="E281" s="12"/>
+      <c r="F281" s="12"/>
+    </row>
+    <row r="282" spans="1:6" ht="21.05">
+      <c r="A282" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B282" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C281" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="21.05">
-      <c r="A282" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B282" s="6" t="s">
+      <c r="C282" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D282" s="12"/>
+      <c r="E282" s="12"/>
+      <c r="F282" s="12"/>
+    </row>
+    <row r="283" spans="1:6" ht="21.05">
+      <c r="A283" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B283" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C282" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="21.05">
-      <c r="A283" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B283" s="6" t="s">
+      <c r="C283" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D283" s="12"/>
+      <c r="E283" s="12"/>
+      <c r="F283" s="12"/>
+    </row>
+    <row r="284" spans="1:6" ht="21.05">
+      <c r="A284" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B284" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C283" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="21.05">
-      <c r="A284" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B284" s="6" t="s">
+      <c r="C284" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D284" s="12"/>
+      <c r="E284" s="12"/>
+      <c r="F284" s="12"/>
+    </row>
+    <row r="285" spans="1:6" ht="21.05">
+      <c r="A285" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B285" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C284" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" ht="21.05">
-      <c r="A285" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B285" s="6" t="s">
+      <c r="C285" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D285" s="12"/>
+      <c r="E285" s="12"/>
+      <c r="F285" s="12"/>
+    </row>
+    <row r="286" spans="1:6" ht="21.05">
+      <c r="A286" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B286" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C285" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="21.05">
-      <c r="A286" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B286" s="6" t="s">
+      <c r="C286" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D286" s="12"/>
+      <c r="E286" s="12"/>
+      <c r="F286" s="12"/>
+    </row>
+    <row r="287" spans="1:6" ht="21.05">
+      <c r="A287" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B287" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C286" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" ht="21.05">
-      <c r="A287" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B287" s="6" t="s">
+      <c r="C287" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D287" s="12"/>
+      <c r="E287" s="12"/>
+      <c r="F287" s="12"/>
+    </row>
+    <row r="288" spans="1:6" ht="21.05">
+      <c r="A288" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B288" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C287" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" ht="21.05">
-      <c r="A288" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B288" s="6" t="s">
+      <c r="C288" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D288" s="12"/>
+      <c r="E288" s="12"/>
+      <c r="F288" s="12"/>
+    </row>
+    <row r="289" spans="1:6" ht="21.05">
+      <c r="A289" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B289" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C288" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="21.05">
-      <c r="A289" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B289" s="6" t="s">
+      <c r="C289" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D289" s="12"/>
+      <c r="E289" s="12"/>
+      <c r="F289" s="12"/>
+    </row>
+    <row r="290" spans="1:6" ht="21.05">
+      <c r="A290" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B290" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C289" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" ht="21.05">
-      <c r="A290" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B290" s="6" t="s">
+      <c r="C290" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D290" s="12"/>
+      <c r="E290" s="12"/>
+      <c r="F290" s="12"/>
+    </row>
+    <row r="291" spans="1:6" ht="21.05">
+      <c r="A291" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B291" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C290" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="21.05">
-      <c r="A291" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B291" s="6" t="s">
+      <c r="C291" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D291" s="12"/>
+      <c r="E291" s="12"/>
+      <c r="F291" s="12"/>
+    </row>
+    <row r="292" spans="1:6" ht="21.05">
+      <c r="A292" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B292" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C291" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" ht="21.05">
-      <c r="A292" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B292" s="6" t="s">
+      <c r="C292" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D292" s="12"/>
+      <c r="E292" s="12"/>
+      <c r="F292" s="12"/>
+    </row>
+    <row r="293" spans="1:6" ht="21.05">
+      <c r="A293" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B293" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C292" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" ht="21.05">
-      <c r="A293" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B293" s="6" t="s">
-        <v>284</v>
-      </c>
       <c r="C293" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" ht="21.05">
+      <c r="D293" s="12"/>
+      <c r="E293" s="12"/>
+      <c r="F293" s="12"/>
+    </row>
+    <row r="294" spans="1:6" ht="21.05">
       <c r="A294" s="4"/>
       <c r="B294" s="7"/>
       <c r="C294" s="11"/>
-    </row>
-    <row r="295" spans="1:3" ht="21.05">
+      <c r="D294" s="12"/>
+      <c r="E294" s="12"/>
+      <c r="F294" s="12"/>
+    </row>
+    <row r="295" spans="1:6" ht="21.05">
       <c r="A295" s="4"/>
       <c r="B295" s="7"/>
       <c r="C295" s="11"/>
-    </row>
-    <row r="296" spans="1:3" ht="21.05">
+      <c r="D295" s="12"/>
+      <c r="E295" s="12"/>
+      <c r="F295" s="12"/>
+    </row>
+    <row r="296" spans="1:6" ht="21.05">
       <c r="A296" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B296" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="6" t="s">
+      <c r="C296" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D296" s="12"/>
+      <c r="E296" s="12"/>
+      <c r="F296" s="12"/>
+    </row>
+    <row r="297" spans="1:6" ht="21.05">
+      <c r="A297" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B297" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C296" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" ht="21.05">
-      <c r="A297" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B297" s="6" t="s">
+      <c r="C297" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D297" s="12"/>
+      <c r="E297" s="12"/>
+      <c r="F297" s="12"/>
+    </row>
+    <row r="298" spans="1:6" ht="21.05">
+      <c r="A298" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B298" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C297" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" ht="21.05">
-      <c r="A298" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B298" s="6" t="s">
+      <c r="C298" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D298" s="12"/>
+      <c r="E298" s="12"/>
+      <c r="F298" s="12"/>
+    </row>
+    <row r="299" spans="1:6" ht="21.05">
+      <c r="A299" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B299" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C298" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="21.05">
-      <c r="A299" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B299" s="6" t="s">
+      <c r="C299" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D299" s="12"/>
+      <c r="E299" s="12"/>
+      <c r="F299" s="12"/>
+    </row>
+    <row r="300" spans="1:6" ht="21.05">
+      <c r="A300" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B300" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C299" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="21.05">
-      <c r="A300" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B300" s="6" t="s">
+      <c r="C300" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D300" s="12"/>
+      <c r="E300" s="12"/>
+      <c r="F300" s="12"/>
+    </row>
+    <row r="301" spans="1:6" ht="21.05">
+      <c r="A301" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B301" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C300" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" ht="21.05">
-      <c r="A301" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B301" s="6" t="s">
+      <c r="C301" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D301" s="12"/>
+      <c r="E301" s="12"/>
+      <c r="F301" s="12"/>
+    </row>
+    <row r="302" spans="1:6" ht="21.05">
+      <c r="A302" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B302" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C301" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="21.05">
-      <c r="A302" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B302" s="6" t="s">
+      <c r="C302" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D302" s="12"/>
+      <c r="E302" s="12"/>
+      <c r="F302" s="12"/>
+    </row>
+    <row r="303" spans="1:6" ht="21.05">
+      <c r="A303" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B303" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C302" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" ht="21.05">
-      <c r="A303" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B303" s="6" t="s">
+      <c r="C303" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D303" s="12"/>
+      <c r="E303" s="12"/>
+      <c r="F303" s="12"/>
+    </row>
+    <row r="304" spans="1:6" ht="21.05">
+      <c r="A304" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B304" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C303" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="21.05">
-      <c r="A304" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B304" s="6" t="s">
+      <c r="C304" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D304" s="12"/>
+      <c r="E304" s="12"/>
+      <c r="F304" s="12"/>
+    </row>
+    <row r="305" spans="1:6" ht="21.05">
+      <c r="A305" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B305" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C304" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" ht="21.05">
-      <c r="A305" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B305" s="6" t="s">
+      <c r="C305" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D305" s="12"/>
+      <c r="E305" s="12"/>
+      <c r="F305" s="12"/>
+    </row>
+    <row r="306" spans="1:6" ht="21.05">
+      <c r="A306" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B306" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C305" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" ht="21.05">
-      <c r="A306" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B306" s="6" t="s">
+      <c r="C306" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D306" s="12"/>
+      <c r="E306" s="12"/>
+      <c r="F306" s="12"/>
+    </row>
+    <row r="307" spans="1:6" ht="21.05">
+      <c r="A307" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B307" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C306" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" ht="21.05">
-      <c r="A307" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B307" s="6" t="s">
+      <c r="C307" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D307" s="12"/>
+      <c r="E307" s="12"/>
+      <c r="F307" s="12"/>
+    </row>
+    <row r="308" spans="1:6" ht="21.05">
+      <c r="A308" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B308" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C307" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" ht="21.05">
-      <c r="A308" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B308" s="6" t="s">
+      <c r="C308" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D308" s="12"/>
+      <c r="E308" s="12"/>
+      <c r="F308" s="12"/>
+    </row>
+    <row r="309" spans="1:6" ht="21.05">
+      <c r="A309" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B309" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="C308" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" ht="21.05">
-      <c r="A309" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B309" s="9" t="s">
+      <c r="C309" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D309" s="12"/>
+      <c r="E309" s="12"/>
+      <c r="F309" s="12"/>
+    </row>
+    <row r="310" spans="1:6" ht="21.05">
+      <c r="A310" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B310" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C309" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="21.05">
-      <c r="A310" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B310" s="6" t="s">
+      <c r="C310" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D310" s="12"/>
+      <c r="E310" s="12"/>
+      <c r="F310" s="12"/>
+    </row>
+    <row r="311" spans="1:6" ht="21.05">
+      <c r="A311" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B311" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C310" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" ht="21.05">
-      <c r="A311" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B311" s="6" t="s">
+      <c r="C311" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D311" s="12"/>
+      <c r="E311" s="12"/>
+      <c r="F311" s="12"/>
+    </row>
+    <row r="312" spans="1:6" ht="21.05">
+      <c r="A312" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B312" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="C311" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" ht="21.05">
-      <c r="A312" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B312" s="13" t="s">
+      <c r="C312" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D312" s="12"/>
+      <c r="E312" s="12"/>
+      <c r="F312" s="12"/>
+    </row>
+    <row r="313" spans="1:6" ht="21.05">
+      <c r="A313" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B313" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C312" s="11" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" ht="21.05">
-      <c r="A313" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B313" s="6" t="s">
+      <c r="C313" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D313" s="12"/>
+      <c r="E313" s="12"/>
+      <c r="F313" s="12"/>
+    </row>
+    <row r="314" spans="1:6" ht="21.05">
+      <c r="A314" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B314" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C313" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" ht="21.05">
-      <c r="A314" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B314" s="6" t="s">
+      <c r="C314" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D314" s="12"/>
+      <c r="E314" s="12"/>
+      <c r="F314" s="12"/>
+    </row>
+    <row r="315" spans="1:6" ht="21.05">
+      <c r="A315" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B315" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C314" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" ht="21.05">
-      <c r="A315" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B315" s="6" t="s">
+      <c r="C315" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D315" s="12"/>
+      <c r="E315" s="12"/>
+      <c r="F315" s="12"/>
+    </row>
+    <row r="316" spans="1:6" ht="21.05">
+      <c r="A316" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B316" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C315" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" ht="21.05">
-      <c r="A316" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B316" s="6" t="s">
+      <c r="C316" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D316" s="12"/>
+      <c r="E316" s="12"/>
+      <c r="F316" s="12"/>
+    </row>
+    <row r="317" spans="1:6" ht="21.05">
+      <c r="A317" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B317" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C316" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" ht="21.05">
-      <c r="A317" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B317" s="6" t="s">
+      <c r="C317" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D317" s="12"/>
+      <c r="E317" s="12"/>
+      <c r="F317" s="12"/>
+    </row>
+    <row r="318" spans="1:6" ht="21.05">
+      <c r="A318" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B318" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C317" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" ht="21.05">
-      <c r="A318" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B318" s="6" t="s">
+      <c r="C318" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D318" s="12"/>
+      <c r="E318" s="12"/>
+      <c r="F318" s="12"/>
+    </row>
+    <row r="319" spans="1:6" ht="21.05">
+      <c r="A319" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B319" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C318" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" ht="21.05">
-      <c r="A319" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B319" s="6" t="s">
+      <c r="C319" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D319" s="12"/>
+      <c r="E319" s="12"/>
+      <c r="F319" s="12"/>
+    </row>
+    <row r="320" spans="1:6" ht="21.05">
+      <c r="A320" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B320" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C319" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" ht="21.05">
-      <c r="A320" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B320" s="6" t="s">
+      <c r="C320" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D320" s="12"/>
+      <c r="E320" s="12"/>
+      <c r="F320" s="12"/>
+    </row>
+    <row r="321" spans="1:6" ht="21.05">
+      <c r="A321" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B321" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C320" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" ht="21.05">
-      <c r="A321" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B321" s="6" t="s">
+      <c r="C321" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D321" s="12"/>
+      <c r="E321" s="12"/>
+      <c r="F321" s="12"/>
+    </row>
+    <row r="322" spans="1:6" ht="21.05">
+      <c r="A322" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B322" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C321" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" ht="21.05">
-      <c r="A322" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B322" s="6" t="s">
+      <c r="C322" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D322" s="12"/>
+      <c r="E322" s="12"/>
+      <c r="F322" s="12"/>
+    </row>
+    <row r="323" spans="1:6" ht="21.05">
+      <c r="A323" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B323" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C322" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="21.05">
-      <c r="A323" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B323" s="6" t="s">
+      <c r="C323" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D323" s="12"/>
+      <c r="E323" s="12"/>
+      <c r="F323" s="12"/>
+    </row>
+    <row r="324" spans="1:6" ht="21.05">
+      <c r="A324" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B324" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C323" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="21.05">
-      <c r="A324" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B324" s="6" t="s">
+      <c r="C324" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D324" s="12"/>
+      <c r="E324" s="12"/>
+      <c r="F324" s="12"/>
+    </row>
+    <row r="325" spans="1:6" ht="21.05">
+      <c r="A325" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B325" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C324" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" ht="21.05">
-      <c r="A325" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B325" s="6" t="s">
+      <c r="C325" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D325" s="12"/>
+      <c r="E325" s="12"/>
+      <c r="F325" s="12"/>
+    </row>
+    <row r="326" spans="1:6" ht="21.05">
+      <c r="A326" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B326" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C325" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" ht="21.05">
-      <c r="A326" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B326" s="6" t="s">
+      <c r="C326" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D326" s="12"/>
+      <c r="E326" s="12"/>
+      <c r="F326" s="12"/>
+    </row>
+    <row r="327" spans="1:6" ht="21.05">
+      <c r="A327" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B327" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C326" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" ht="21.05">
-      <c r="A327" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B327" s="6" t="s">
+      <c r="C327" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D327" s="12"/>
+      <c r="E327" s="12"/>
+      <c r="F327" s="12"/>
+    </row>
+    <row r="328" spans="1:6" ht="21.05">
+      <c r="A328" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B328" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C327" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" ht="21.05">
-      <c r="A328" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B328" s="6" t="s">
+      <c r="C328" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D328" s="12"/>
+      <c r="E328" s="12"/>
+      <c r="F328" s="12"/>
+    </row>
+    <row r="329" spans="1:6" ht="21.05">
+      <c r="A329" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B329" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C328" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" ht="21.05">
-      <c r="A329" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B329" s="6" t="s">
+      <c r="C329" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D329" s="12"/>
+      <c r="E329" s="12"/>
+      <c r="F329" s="12"/>
+    </row>
+    <row r="330" spans="1:6" ht="21.05">
+      <c r="A330" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B330" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C329" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" ht="21.05">
-      <c r="A330" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B330" s="6" t="s">
+      <c r="C330" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D330" s="12"/>
+      <c r="E330" s="12"/>
+      <c r="F330" s="12"/>
+    </row>
+    <row r="331" spans="1:6" ht="21.05">
+      <c r="A331" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B331" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C330" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" ht="21.05">
-      <c r="A331" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B331" s="6" t="s">
+      <c r="C331" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D331" s="12"/>
+      <c r="E331" s="12"/>
+      <c r="F331" s="12"/>
+    </row>
+    <row r="332" spans="1:6" ht="21.05">
+      <c r="A332" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B332" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C331" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" ht="21.05">
-      <c r="A332" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B332" s="6" t="s">
+      <c r="C332" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D332" s="12"/>
+      <c r="E332" s="12"/>
+      <c r="F332" s="12"/>
+    </row>
+    <row r="333" spans="1:6" ht="21.05">
+      <c r="A333" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B333" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C332" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" ht="21.05">
-      <c r="A333" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B333" s="6" t="s">
-        <v>323</v>
-      </c>
       <c r="C333" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" ht="21.05">
+      <c r="D333" s="12"/>
+      <c r="E333" s="12"/>
+      <c r="F333" s="12"/>
+    </row>
+    <row r="334" spans="1:6" ht="21.05">
       <c r="A334" s="4"/>
       <c r="B334" s="7"/>
       <c r="C334" s="11"/>
-    </row>
-    <row r="335" spans="1:3" ht="21.05">
+      <c r="D334" s="12"/>
+      <c r="E334" s="12"/>
+      <c r="F334" s="12"/>
+    </row>
+    <row r="335" spans="1:6" ht="21.05">
       <c r="A335" s="4"/>
       <c r="B335" s="7"/>
       <c r="C335" s="11"/>
-    </row>
-    <row r="336" spans="1:3" ht="21.05">
+      <c r="D335" s="12"/>
+      <c r="E335" s="12"/>
+      <c r="F335" s="12"/>
+    </row>
+    <row r="336" spans="1:6" ht="21.05">
       <c r="A336" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B336" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="6" t="s">
+      <c r="C336" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D336" s="12"/>
+      <c r="E336" s="12"/>
+      <c r="F336" s="12"/>
+    </row>
+    <row r="337" spans="1:6" ht="21.05">
+      <c r="A337" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B337" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C336" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" ht="21.05">
-      <c r="A337" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B337" s="6" t="s">
+      <c r="C337" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D337" s="12"/>
+      <c r="E337" s="12"/>
+      <c r="F337" s="12"/>
+    </row>
+    <row r="338" spans="1:6" ht="21.05">
+      <c r="A338" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B338" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C337" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" ht="21.05">
-      <c r="A338" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B338" s="6" t="s">
+      <c r="C338" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D338" s="12"/>
+      <c r="E338" s="12"/>
+      <c r="F338" s="12"/>
+    </row>
+    <row r="339" spans="1:6" ht="21.05">
+      <c r="A339" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B339" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C338" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" ht="21.05">
-      <c r="A339" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B339" s="6" t="s">
+      <c r="C339" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D339" s="12"/>
+      <c r="E339" s="12"/>
+      <c r="F339" s="12"/>
+    </row>
+    <row r="340" spans="1:6" ht="21.05">
+      <c r="A340" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B340" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C339" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" ht="21.05">
-      <c r="A340" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B340" s="6" t="s">
+      <c r="C340" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D340" s="12"/>
+      <c r="E340" s="12"/>
+      <c r="F340" s="12"/>
+    </row>
+    <row r="341" spans="1:6" ht="21.05">
+      <c r="A341" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B341" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C340" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" ht="21.05">
-      <c r="A341" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B341" s="6" t="s">
+      <c r="C341" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D341" s="12"/>
+      <c r="E341" s="12"/>
+      <c r="F341" s="12"/>
+    </row>
+    <row r="342" spans="1:6" ht="21.05">
+      <c r="A342" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B342" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C341" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" ht="21.05">
-      <c r="A342" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B342" s="6" t="s">
+      <c r="C342" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D342" s="12"/>
+      <c r="E342" s="12"/>
+      <c r="F342" s="12"/>
+    </row>
+    <row r="343" spans="1:6" ht="21.05">
+      <c r="A343" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B343" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C342" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" ht="21.05">
-      <c r="A343" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B343" s="6" t="s">
+      <c r="C343" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D343" s="12"/>
+      <c r="E343" s="12"/>
+      <c r="F343" s="12"/>
+    </row>
+    <row r="344" spans="1:6" ht="21.05">
+      <c r="A344" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B344" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="C343" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" ht="21.05">
-      <c r="A344" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B344" s="9" t="s">
+      <c r="C344" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D344" s="12"/>
+      <c r="E344" s="12"/>
+      <c r="F344" s="12"/>
+    </row>
+    <row r="345" spans="1:6" ht="21.05">
+      <c r="A345" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B345" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C344" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" ht="21.05">
-      <c r="A345" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B345" s="6" t="s">
+      <c r="C345" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D345" s="12"/>
+      <c r="E345" s="12"/>
+      <c r="F345" s="12"/>
+    </row>
+    <row r="346" spans="1:6" ht="21.05">
+      <c r="A346" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B346" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C345" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" ht="21.05">
-      <c r="A346" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B346" s="6" t="s">
+      <c r="C346" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D346" s="12"/>
+      <c r="E346" s="12"/>
+      <c r="F346" s="12"/>
+    </row>
+    <row r="347" spans="1:6" ht="21.05">
+      <c r="A347" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B347" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C346" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" ht="21.05">
-      <c r="A347" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B347" s="6" t="s">
+      <c r="C347" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D347" s="12"/>
+      <c r="E347" s="12"/>
+      <c r="F347" s="12"/>
+    </row>
+    <row r="348" spans="1:6" ht="21.05">
+      <c r="A348" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B348" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C347" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" ht="21.05">
-      <c r="A348" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B348" s="6" t="s">
+      <c r="C348" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D348" s="12"/>
+      <c r="E348" s="12"/>
+      <c r="F348" s="12"/>
+    </row>
+    <row r="349" spans="1:6" ht="21.05">
+      <c r="A349" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B349" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C348" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" ht="21.05">
-      <c r="A349" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B349" s="6" t="s">
+      <c r="C349" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D349" s="12"/>
+      <c r="E349" s="12"/>
+      <c r="F349" s="12"/>
+    </row>
+    <row r="350" spans="1:6" ht="21.05">
+      <c r="A350" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B350" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C349" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" ht="21.05">
-      <c r="A350" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B350" s="6" t="s">
+      <c r="C350" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D350" s="12"/>
+      <c r="E350" s="12"/>
+      <c r="F350" s="12"/>
+    </row>
+    <row r="351" spans="1:6" ht="21.05">
+      <c r="A351" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B351" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C350" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" ht="21.05">
-      <c r="A351" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B351" s="6" t="s">
+      <c r="C351" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="21.05">
+      <c r="A352" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B352" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="C351" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" ht="21.05">
-      <c r="A352" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B352" s="6" t="s">
-        <v>341</v>
       </c>
       <c r="C352" s="11" t="s">
         <v>4</v>
@@ -5797,10 +7330,10 @@
     </row>
     <row r="353" spans="1:3" ht="21.05">
       <c r="A353" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C353" s="11" t="s">
         <v>4</v>
@@ -5818,10 +7351,10 @@
     </row>
     <row r="356" spans="1:3" ht="21.05">
       <c r="A356" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B356" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="B356" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="C356" s="11" t="s">
         <v>4</v>
@@ -5829,10 +7362,10 @@
     </row>
     <row r="357" spans="1:3" ht="21.05">
       <c r="A357" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C357" s="11" t="s">
         <v>4</v>
@@ -5840,10 +7373,10 @@
     </row>
     <row r="358" spans="1:3" ht="21.05">
       <c r="A358" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C358" s="11" t="s">
         <v>4</v>
@@ -5851,10 +7384,10 @@
     </row>
     <row r="359" spans="1:3" ht="21.05">
       <c r="A359" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C359" s="11" t="s">
         <v>4</v>
@@ -5862,10 +7395,10 @@
     </row>
     <row r="360" spans="1:3" ht="21.05">
       <c r="A360" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C360" s="11" t="s">
         <v>4</v>
@@ -5873,10 +7406,10 @@
     </row>
     <row r="361" spans="1:3" ht="21.05">
       <c r="A361" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C361" s="11" t="s">
         <v>4</v>
@@ -5884,10 +7417,10 @@
     </row>
     <row r="362" spans="1:3" ht="21.05">
       <c r="A362" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C362" s="11" t="s">
         <v>4</v>
@@ -5895,10 +7428,10 @@
     </row>
     <row r="363" spans="1:3" ht="21.05">
       <c r="A363" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C363" s="11" t="s">
         <v>4</v>
@@ -5906,10 +7439,10 @@
     </row>
     <row r="364" spans="1:3" ht="21.05">
       <c r="A364" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C364" s="11" t="s">
         <v>4</v>
@@ -5917,10 +7450,10 @@
     </row>
     <row r="365" spans="1:3" ht="21.05">
       <c r="A365" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C365" s="11" t="s">
         <v>4</v>
@@ -5928,10 +7461,10 @@
     </row>
     <row r="366" spans="1:3" ht="21.05">
       <c r="A366" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C366" s="11" t="s">
         <v>4</v>
@@ -5939,10 +7472,10 @@
     </row>
     <row r="367" spans="1:3" ht="21.05">
       <c r="A367" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C367" s="11" t="s">
         <v>4</v>
@@ -5950,10 +7483,10 @@
     </row>
     <row r="368" spans="1:3" ht="21.05">
       <c r="A368" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C368" s="11" t="s">
         <v>4</v>
@@ -5961,10 +7494,10 @@
     </row>
     <row r="369" spans="1:3" ht="21.05">
       <c r="A369" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C369" s="11" t="s">
         <v>4</v>
@@ -5972,10 +7505,10 @@
     </row>
     <row r="370" spans="1:3" ht="21.05">
       <c r="A370" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C370" s="11" t="s">
         <v>4</v>
@@ -5983,10 +7516,10 @@
     </row>
     <row r="371" spans="1:3" ht="21.05">
       <c r="A371" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C371" s="11" t="s">
         <v>4</v>
@@ -5994,10 +7527,10 @@
     </row>
     <row r="372" spans="1:3" ht="21.05">
       <c r="A372" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C372" s="11" t="s">
         <v>4</v>
@@ -6005,10 +7538,10 @@
     </row>
     <row r="373" spans="1:3" ht="21.05">
       <c r="A373" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C373" s="11" t="s">
         <v>4</v>
@@ -6016,10 +7549,10 @@
     </row>
     <row r="374" spans="1:3" ht="21.05">
       <c r="A374" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C374" s="11" t="s">
         <v>4</v>
@@ -6027,10 +7560,10 @@
     </row>
     <row r="375" spans="1:3" ht="21.05">
       <c r="A375" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C375" s="11" t="s">
         <v>4</v>
@@ -6038,10 +7571,10 @@
     </row>
     <row r="376" spans="1:3" ht="21.05">
       <c r="A376" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C376" s="11" t="s">
         <v>4</v>
@@ -6049,10 +7582,10 @@
     </row>
     <row r="377" spans="1:3" ht="21.05">
       <c r="A377" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C377" s="11" t="s">
         <v>4</v>
@@ -6060,10 +7593,10 @@
     </row>
     <row r="378" spans="1:3" ht="21.05">
       <c r="A378" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C378" s="11" t="s">
         <v>4</v>
@@ -6071,10 +7604,10 @@
     </row>
     <row r="379" spans="1:3" ht="21.05">
       <c r="A379" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C379" s="11" t="s">
         <v>4</v>
@@ -6082,10 +7615,10 @@
     </row>
     <row r="380" spans="1:3" ht="21.05">
       <c r="A380" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C380" s="11" t="s">
         <v>4</v>
@@ -6093,10 +7626,10 @@
     </row>
     <row r="381" spans="1:3" ht="21.05">
       <c r="A381" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C381" s="11" t="s">
         <v>4</v>
@@ -6104,10 +7637,10 @@
     </row>
     <row r="382" spans="1:3" ht="21.05">
       <c r="A382" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C382" s="11" t="s">
         <v>4</v>
@@ -6115,10 +7648,10 @@
     </row>
     <row r="383" spans="1:3" ht="21.05">
       <c r="A383" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C383" s="11" t="s">
         <v>4</v>
@@ -6126,10 +7659,10 @@
     </row>
     <row r="384" spans="1:3" ht="21.05">
       <c r="A384" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C384" s="11" t="s">
         <v>4</v>
@@ -6137,10 +7670,10 @@
     </row>
     <row r="385" spans="1:3" ht="21.05">
       <c r="A385" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C385" s="11" t="s">
         <v>4</v>
@@ -6148,10 +7681,10 @@
     </row>
     <row r="386" spans="1:3" ht="21.05">
       <c r="A386" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C386" s="11" t="s">
         <v>4</v>
@@ -6159,10 +7692,10 @@
     </row>
     <row r="387" spans="1:3" ht="21.05">
       <c r="A387" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C387" s="11" t="s">
         <v>4</v>
@@ -6170,10 +7703,10 @@
     </row>
     <row r="388" spans="1:3" ht="21.05">
       <c r="A388" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C388" s="11" t="s">
         <v>4</v>
@@ -6181,10 +7714,10 @@
     </row>
     <row r="389" spans="1:3" ht="21.05">
       <c r="A389" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C389" s="11" t="s">
         <v>4</v>
@@ -6192,10 +7725,10 @@
     </row>
     <row r="390" spans="1:3" ht="21.05">
       <c r="A390" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C390" s="11" t="s">
         <v>4</v>
@@ -6203,10 +7736,10 @@
     </row>
     <row r="391" spans="1:3" ht="21.05">
       <c r="A391" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C391" s="11" t="s">
         <v>4</v>
@@ -6214,10 +7747,10 @@
     </row>
     <row r="392" spans="1:3" ht="21.05">
       <c r="A392" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C392" s="11" t="s">
         <v>4</v>
@@ -6225,10 +7758,10 @@
     </row>
     <row r="393" spans="1:3" ht="21.05">
       <c r="A393" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C393" s="11" t="s">
         <v>4</v>
@@ -6236,10 +7769,10 @@
     </row>
     <row r="394" spans="1:3" ht="21.05">
       <c r="A394" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C394" s="11" t="s">
         <v>4</v>
@@ -6247,10 +7780,10 @@
     </row>
     <row r="395" spans="1:3" ht="21.05">
       <c r="A395" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C395" s="11" t="s">
         <v>4</v>
@@ -6258,10 +7791,10 @@
     </row>
     <row r="396" spans="1:3" ht="21.05">
       <c r="A396" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C396" s="11" t="s">
         <v>4</v>
@@ -6269,10 +7802,10 @@
     </row>
     <row r="397" spans="1:3" ht="21.05">
       <c r="A397" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C397" s="11" t="s">
         <v>4</v>
@@ -6280,10 +7813,10 @@
     </row>
     <row r="398" spans="1:3" ht="21.05">
       <c r="A398" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C398" s="11" t="s">
         <v>4</v>
@@ -6291,10 +7824,10 @@
     </row>
     <row r="399" spans="1:3" ht="21.05">
       <c r="A399" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C399" s="11" t="s">
         <v>4</v>
@@ -6312,10 +7845,10 @@
     </row>
     <row r="402" spans="1:3" ht="21.05">
       <c r="A402" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B402" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="B402" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="C402" s="11" t="s">
         <v>4</v>
@@ -6323,10 +7856,10 @@
     </row>
     <row r="403" spans="1:3" ht="21.05">
       <c r="A403" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C403" s="11" t="s">
         <v>4</v>
@@ -6334,10 +7867,10 @@
     </row>
     <row r="404" spans="1:3" ht="21.05">
       <c r="A404" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C404" s="11" t="s">
         <v>4</v>
@@ -6345,7 +7878,7 @@
     </row>
     <row r="405" spans="1:3" ht="21.05">
       <c r="A405" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B405" s="6" t="s">
         <v>89</v>
@@ -6356,10 +7889,10 @@
     </row>
     <row r="406" spans="1:3" ht="21.05">
       <c r="A406" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C406" s="11" t="s">
         <v>4</v>
@@ -6367,10 +7900,10 @@
     </row>
     <row r="407" spans="1:3" ht="21.05">
       <c r="A407" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C407" s="11" t="s">
         <v>4</v>
@@ -6388,10 +7921,10 @@
     </row>
     <row r="410" spans="1:3" ht="21.05">
       <c r="A410" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B410" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="B410" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="C410" s="11" t="s">
         <v>4</v>
@@ -6399,10 +7932,10 @@
     </row>
     <row r="411" spans="1:3" ht="21.05">
       <c r="A411" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C411" s="11" t="s">
         <v>4</v>
@@ -6410,10 +7943,10 @@
     </row>
     <row r="412" spans="1:3" ht="21.05">
       <c r="A412" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C412" s="11" t="s">
         <v>4</v>
@@ -6421,10 +7954,10 @@
     </row>
     <row r="413" spans="1:3" ht="21.05">
       <c r="A413" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C413" s="11" t="s">
         <v>4</v>
@@ -6432,10 +7965,10 @@
     </row>
     <row r="414" spans="1:3" ht="21.05">
       <c r="A414" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C414" s="11" t="s">
         <v>4</v>
@@ -6443,10 +7976,10 @@
     </row>
     <row r="415" spans="1:3" ht="21.05">
       <c r="A415" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C415" s="11" t="s">
         <v>4</v>
@@ -6454,10 +7987,10 @@
     </row>
     <row r="416" spans="1:3" ht="21.05">
       <c r="A416" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C416" s="11" t="s">
         <v>4</v>
@@ -6465,10 +7998,10 @@
     </row>
     <row r="417" spans="1:3" ht="21.05">
       <c r="A417" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C417" s="11" t="s">
         <v>4</v>
@@ -6476,10 +8009,10 @@
     </row>
     <row r="418" spans="1:3" ht="21.05">
       <c r="A418" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C418" s="11" t="s">
         <v>4</v>
@@ -6487,10 +8020,10 @@
     </row>
     <row r="419" spans="1:3" ht="21.05">
       <c r="A419" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C419" s="11" t="s">
         <v>4</v>
@@ -6498,10 +8031,10 @@
     </row>
     <row r="420" spans="1:3" ht="21.05">
       <c r="A420" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C420" s="11" t="s">
         <v>4</v>
@@ -6509,10 +8042,10 @@
     </row>
     <row r="421" spans="1:3" ht="21.05">
       <c r="A421" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C421" s="11" t="s">
         <v>4</v>
@@ -6520,10 +8053,10 @@
     </row>
     <row r="422" spans="1:3" ht="21.05">
       <c r="A422" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C422" s="11" t="s">
         <v>4</v>
@@ -6531,10 +8064,10 @@
     </row>
     <row r="423" spans="1:3" ht="21.05">
       <c r="A423" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C423" s="11" t="s">
         <v>4</v>
@@ -6542,10 +8075,10 @@
     </row>
     <row r="424" spans="1:3" ht="21.05">
       <c r="A424" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C424" s="11" t="s">
         <v>4</v>
@@ -6553,10 +8086,10 @@
     </row>
     <row r="425" spans="1:3" ht="21.05">
       <c r="A425" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C425" s="11" t="s">
         <v>4</v>
@@ -6564,10 +8097,10 @@
     </row>
     <row r="426" spans="1:3" ht="21.05">
       <c r="A426" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C426" s="11" t="s">
         <v>4</v>
@@ -6575,10 +8108,10 @@
     </row>
     <row r="427" spans="1:3" ht="21.05">
       <c r="A427" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C427" s="11" t="s">
         <v>4</v>
@@ -6586,10 +8119,10 @@
     </row>
     <row r="428" spans="1:3" ht="21.05">
       <c r="A428" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C428" s="11" t="s">
         <v>4</v>
@@ -6597,10 +8130,10 @@
     </row>
     <row r="429" spans="1:3" ht="21.05">
       <c r="A429" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C429" s="11" t="s">
         <v>4</v>
@@ -6608,10 +8141,10 @@
     </row>
     <row r="430" spans="1:3" ht="21.05">
       <c r="A430" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C430" s="11" t="s">
         <v>4</v>
@@ -6619,10 +8152,10 @@
     </row>
     <row r="431" spans="1:3" ht="21.05">
       <c r="A431" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C431" s="11" t="s">
         <v>4</v>
@@ -6630,10 +8163,10 @@
     </row>
     <row r="432" spans="1:3" ht="21.05">
       <c r="A432" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C432" s="11" t="s">
         <v>4</v>
@@ -6641,10 +8174,10 @@
     </row>
     <row r="433" spans="1:3" ht="21.05">
       <c r="A433" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C433" s="11" t="s">
         <v>4</v>
@@ -6652,10 +8185,10 @@
     </row>
     <row r="434" spans="1:3" ht="21.05">
       <c r="A434" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C434" s="11" t="s">
         <v>4</v>
@@ -6663,10 +8196,10 @@
     </row>
     <row r="435" spans="1:3" ht="21.05">
       <c r="A435" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C435" s="11" t="s">
         <v>4</v>
@@ -6674,10 +8207,10 @@
     </row>
     <row r="436" spans="1:3" ht="21.05">
       <c r="A436" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C436" s="11" t="s">
         <v>4</v>
@@ -6685,10 +8218,10 @@
     </row>
     <row r="437" spans="1:3" ht="21.05">
       <c r="A437" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C437" s="11" t="s">
         <v>4</v>
@@ -6696,10 +8229,10 @@
     </row>
     <row r="438" spans="1:3" ht="21.05">
       <c r="A438" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C438" s="11" t="s">
         <v>4</v>
@@ -6707,10 +8240,10 @@
     </row>
     <row r="439" spans="1:3" ht="21.05">
       <c r="A439" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C439" s="11" t="s">
         <v>4</v>
@@ -6718,10 +8251,10 @@
     </row>
     <row r="440" spans="1:3" ht="21.05">
       <c r="A440" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C440" s="11" t="s">
         <v>4</v>
@@ -6729,10 +8262,10 @@
     </row>
     <row r="441" spans="1:3" ht="21.05">
       <c r="A441" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C441" s="11" t="s">
         <v>4</v>
@@ -6740,10 +8273,10 @@
     </row>
     <row r="442" spans="1:3" ht="21.05">
       <c r="A442" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C442" s="11" t="s">
         <v>4</v>
@@ -6751,10 +8284,10 @@
     </row>
     <row r="443" spans="1:3" ht="21.05">
       <c r="A443" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C443" s="11" t="s">
         <v>4</v>
@@ -6762,10 +8295,10 @@
     </row>
     <row r="444" spans="1:3" ht="21.05">
       <c r="A444" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C444" s="11" t="s">
         <v>4</v>
@@ -6773,10 +8306,10 @@
     </row>
     <row r="445" spans="1:3" ht="21.05">
       <c r="A445" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C445" s="11" t="s">
         <v>4</v>
@@ -6784,10 +8317,10 @@
     </row>
     <row r="446" spans="1:3" ht="21.05">
       <c r="A446" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C446" s="11" t="s">
         <v>4</v>
@@ -6795,10 +8328,10 @@
     </row>
     <row r="447" spans="1:3" ht="21.05">
       <c r="A447" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C447" s="11" t="s">
         <v>4</v>
@@ -6806,10 +8339,10 @@
     </row>
     <row r="448" spans="1:3" ht="21.05">
       <c r="A448" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C448" s="11" t="s">
         <v>4</v>
@@ -6817,10 +8350,10 @@
     </row>
     <row r="449" spans="1:3" ht="21.05">
       <c r="A449" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C449" s="11" t="s">
         <v>4</v>
@@ -6828,10 +8361,10 @@
     </row>
     <row r="450" spans="1:3" ht="21.05">
       <c r="A450" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C450" s="11" t="s">
         <v>4</v>
@@ -6839,10 +8372,10 @@
     </row>
     <row r="451" spans="1:3" ht="21.05">
       <c r="A451" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C451" s="11" t="s">
         <v>4</v>
@@ -6850,10 +8383,10 @@
     </row>
     <row r="452" spans="1:3" ht="21.05">
       <c r="A452" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C452" s="11" t="s">
         <v>4</v>
@@ -6861,10 +8394,10 @@
     </row>
     <row r="453" spans="1:3" ht="21.05">
       <c r="A453" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C453" s="11" t="s">
         <v>4</v>
@@ -6872,10 +8405,10 @@
     </row>
     <row r="454" spans="1:3" ht="21.05">
       <c r="A454" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C454" s="11" t="s">
         <v>4</v>
@@ -6883,10 +8416,10 @@
     </row>
     <row r="455" spans="1:3" ht="21.05">
       <c r="A455" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C455" s="11" t="s">
         <v>4</v>
@@ -6894,10 +8427,10 @@
     </row>
     <row r="456" spans="1:3" ht="21.05">
       <c r="A456" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C456" s="11" t="s">
         <v>4</v>
@@ -6905,10 +8438,10 @@
     </row>
     <row r="457" spans="1:3" ht="21.05">
       <c r="A457" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C457" s="11" t="s">
         <v>4</v>
@@ -6916,10 +8449,10 @@
     </row>
     <row r="458" spans="1:3" ht="21.05">
       <c r="A458" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C458" s="11" t="s">
         <v>4</v>
@@ -6927,10 +8460,10 @@
     </row>
     <row r="459" spans="1:3" ht="21.05">
       <c r="A459" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C459" s="11" t="s">
         <v>4</v>
@@ -6938,10 +8471,10 @@
     </row>
     <row r="460" spans="1:3" ht="21.05">
       <c r="A460" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C460" s="11" t="s">
         <v>4</v>
@@ -6949,10 +8482,10 @@
     </row>
     <row r="461" spans="1:3" ht="21.05">
       <c r="A461" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C461" s="11" t="s">
         <v>4</v>
@@ -6960,10 +8493,10 @@
     </row>
     <row r="462" spans="1:3" ht="21.05">
       <c r="A462" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C462" s="11" t="s">
         <v>4</v>
@@ -6971,10 +8504,10 @@
     </row>
     <row r="463" spans="1:3" ht="21.05">
       <c r="A463" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C463" s="11" t="s">
         <v>4</v>
@@ -6982,10 +8515,10 @@
     </row>
     <row r="464" spans="1:3" ht="21.05">
       <c r="A464" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C464" s="11" t="s">
         <v>4</v>
@@ -6993,10 +8526,10 @@
     </row>
     <row r="465" spans="1:3" ht="21.05">
       <c r="A465" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C465" s="11" t="s">
         <v>4</v>
@@ -7004,10 +8537,10 @@
     </row>
     <row r="466" spans="1:3" ht="21.05">
       <c r="A466" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C466" s="11" t="s">
         <v>4</v>
@@ -7015,10 +8548,10 @@
     </row>
     <row r="467" spans="1:3" ht="21.05">
       <c r="A467" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C467" s="11" t="s">
         <v>4</v>
@@ -7026,10 +8559,10 @@
     </row>
     <row r="468" spans="1:3" ht="21.05">
       <c r="A468" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C468" s="11" t="s">
         <v>4</v>
@@ -7037,10 +8570,10 @@
     </row>
     <row r="469" spans="1:3" ht="21.05">
       <c r="A469" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C469" s="11" t="s">
         <v>4</v>
@@ -7058,10 +8591,10 @@
     </row>
     <row r="472" spans="1:3" ht="21.05">
       <c r="A472" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B472" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="B472" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="C472" s="11" t="s">
         <v>4</v>
@@ -7069,10 +8602,10 @@
     </row>
     <row r="473" spans="1:3" ht="21.05">
       <c r="A473" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C473" s="11" t="s">
         <v>4</v>
@@ -7080,10 +8613,10 @@
     </row>
     <row r="474" spans="1:3" ht="21.05">
       <c r="A474" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C474" s="11" t="s">
         <v>4</v>
@@ -7091,10 +8624,10 @@
     </row>
     <row r="475" spans="1:3" ht="21.05">
       <c r="A475" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C475" s="11" t="s">
         <v>4</v>
@@ -7102,10 +8635,10 @@
     </row>
     <row r="476" spans="1:3" ht="21.05">
       <c r="A476" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C476" s="11" t="s">
         <v>4</v>
@@ -7113,10 +8646,10 @@
     </row>
     <row r="477" spans="1:3" ht="21.05">
       <c r="A477" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C477" s="11" t="s">
         <v>4</v>
@@ -7124,10 +8657,10 @@
     </row>
     <row r="478" spans="1:3" ht="21.05">
       <c r="A478" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C478" s="11" t="s">
         <v>4</v>
@@ -7135,10 +8668,10 @@
     </row>
     <row r="479" spans="1:3" ht="21.05">
       <c r="A479" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C479" s="11" t="s">
         <v>4</v>
@@ -7146,10 +8679,10 @@
     </row>
     <row r="480" spans="1:3" ht="21.05">
       <c r="A480" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C480" s="11" t="s">
         <v>4</v>
@@ -7157,10 +8690,10 @@
     </row>
     <row r="481" spans="1:3" ht="21.05">
       <c r="A481" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C481" s="11" t="s">
         <v>4</v>
@@ -7243,6 +8776,209 @@
       <c r="C501" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="201">
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="D126:F126"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="D147:F147"/>
+    <mergeCell ref="D148:F148"/>
+    <mergeCell ref="D149:F149"/>
+    <mergeCell ref="D150:F150"/>
+    <mergeCell ref="D151:F151"/>
+    <mergeCell ref="D152:F152"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="D144:F144"/>
+    <mergeCell ref="D145:F145"/>
+    <mergeCell ref="D146:F146"/>
+    <mergeCell ref="D159:F159"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="D162:F162"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="D164:F164"/>
+    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="D154:F154"/>
+    <mergeCell ref="D155:F155"/>
+    <mergeCell ref="D156:F156"/>
+    <mergeCell ref="D157:F157"/>
+    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="D171:F171"/>
+    <mergeCell ref="D172:F172"/>
+    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="D174:F174"/>
+    <mergeCell ref="D177:F177"/>
+    <mergeCell ref="D178:F178"/>
+    <mergeCell ref="D165:F165"/>
+    <mergeCell ref="D166:F166"/>
+    <mergeCell ref="D167:F167"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="D169:F169"/>
+    <mergeCell ref="D170:F170"/>
+    <mergeCell ref="D187:F187"/>
+    <mergeCell ref="D188:F188"/>
+    <mergeCell ref="D189:F189"/>
+    <mergeCell ref="D190:F190"/>
+    <mergeCell ref="D179:F179"/>
+    <mergeCell ref="D180:F180"/>
+    <mergeCell ref="D181:F181"/>
+    <mergeCell ref="D182:F182"/>
+    <mergeCell ref="D183:F183"/>
+    <mergeCell ref="D184:F184"/>
+    <mergeCell ref="D209:F209"/>
+    <mergeCell ref="D210:F210"/>
+    <mergeCell ref="D211:F211"/>
+    <mergeCell ref="D117:G117"/>
+    <mergeCell ref="D203:F203"/>
+    <mergeCell ref="D204:F204"/>
+    <mergeCell ref="D205:F205"/>
+    <mergeCell ref="D206:F206"/>
+    <mergeCell ref="D207:F207"/>
+    <mergeCell ref="D208:F208"/>
+    <mergeCell ref="D197:F197"/>
+    <mergeCell ref="D198:F198"/>
+    <mergeCell ref="D199:F199"/>
+    <mergeCell ref="D200:F200"/>
+    <mergeCell ref="D201:F201"/>
+    <mergeCell ref="D202:F202"/>
+    <mergeCell ref="D191:F191"/>
+    <mergeCell ref="D192:F192"/>
+    <mergeCell ref="D193:F193"/>
+    <mergeCell ref="D194:F194"/>
+    <mergeCell ref="D195:F195"/>
+    <mergeCell ref="D196:F196"/>
+    <mergeCell ref="D185:F185"/>
+    <mergeCell ref="D186:F186"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
     <hyperlink ref="B7" r:id="rId2" xr:uid="{2D6F1134-3C08-7445-B19A-9B94A18B55C7}"/>
@@ -7355,7 +9091,7 @@
     <hyperlink ref="B123" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
     <hyperlink ref="B124" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
     <hyperlink ref="B125" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="B126" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="B126" r:id="rId112" display="EKOSPOJ:" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
     <hyperlink ref="B127" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
     <hyperlink ref="B128" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
     <hyperlink ref="B129" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
